--- a/単体テスト仕様書_取引単体(画面)_W11AA01_ユーザ登録_A1.xlsx
+++ b/単体テスト仕様書_取引単体(画面)_W11AA01_ユーザ登録_A1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F413E23E-80EB-4346-A1B5-1879259CE202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F413E23E-80EB-4346-A1B5-1879259CE202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1AFACA4-2C2B-4F21-A001-4177EA9C2945}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1707,13 +1707,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[登録する]ボタンのsubmitタグのallowDoubleSubmission属性にfalseが指定されている</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録完了画面が表示される
 データベースに同じデータが２件登録されていない</t>
     <rPh sb="0" eb="2">
@@ -1821,16 +1814,6 @@
   </si>
   <si>
     <t>ユーザ登録確認画面で編集仕様通り、パスワードがマスキングされる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録する]ボタンのsubmitタグのallowDoubleSubmission属性にfalseが指定されていることを目視で確認</t>
-    <rPh sb="59" eb="61">
-      <t>モクシ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>カクニン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2277,6 +2260,20 @@
     <t>ユーザ登録画面が表示される
 エラーメッセージ「パスワードが一致しません。」が表示される
 エラーメッセージのレイアウトが仕様通りである</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録する]ボタンを押下後、[登録する]ボタンがクリックできない状態(disabled属性により非活性)であることを確認</t>
+    <rPh sb="10" eb="13">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録する]ボタンを押下後、[登録する]ボタンがクリックできない状態(disabled属性により非活性)である</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3285,6 +3282,30 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3488,30 +3509,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4026,6 +4023,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -4372,12 +4373,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="110">
+      <c r="I25" s="118">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>45460</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -4941,57 +4942,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="146" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="152" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="161" t="s">
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="178" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>徳重　順哉</v>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="137">
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="145">
         <f>IF(D8="","",D8)</f>
         <v>45460</v>
       </c>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="139"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -4999,53 +5000,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="149" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="157" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="137" t="str">
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="145" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="139"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -5053,45 +5054,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="137"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="139"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -5128,1028 +5129,1028 @@
       <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="140" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="140" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="140" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="140" t="s">
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="142"/>
-      <c r="AB7" s="142"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="141"/>
-      <c r="AF7" s="140" t="s">
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="141"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="149"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="57">
         <v>1</v>
       </c>
-      <c r="B8" s="124">
+      <c r="B8" s="132">
         <v>1</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126">
+      <c r="C8" s="133"/>
+      <c r="D8" s="134">
         <v>45460</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129" t="s">
+      <c r="E8" s="135"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="131" t="s">
+      <c r="H8" s="138"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="134" t="s">
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135"/>
-      <c r="U8" s="135"/>
-      <c r="V8" s="135"/>
-      <c r="W8" s="135"/>
-      <c r="X8" s="135"/>
-      <c r="Y8" s="135"/>
-      <c r="Z8" s="135"/>
-      <c r="AA8" s="135"/>
-      <c r="AB8" s="135"/>
-      <c r="AC8" s="135"/>
-      <c r="AD8" s="135"/>
-      <c r="AE8" s="136"/>
-      <c r="AF8" s="131" t="s">
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="AG8" s="132"/>
-      <c r="AH8" s="132"/>
-      <c r="AI8" s="133"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="141"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="20"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="121"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="121"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="117"/>
-      <c r="AG9" s="118"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="125"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="127"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="20"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="121"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="117"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="127"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="20"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="121"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="121"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="127"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="20"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="121"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="117"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129"/>
+      <c r="Z12" s="129"/>
+      <c r="AA12" s="129"/>
+      <c r="AB12" s="129"/>
+      <c r="AC12" s="129"/>
+      <c r="AD12" s="129"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="125"/>
+      <c r="AG12" s="126"/>
+      <c r="AH12" s="126"/>
+      <c r="AI12" s="127"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="20"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="118"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="129"/>
+      <c r="AA13" s="129"/>
+      <c r="AB13" s="129"/>
+      <c r="AC13" s="129"/>
+      <c r="AD13" s="129"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="127"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="20"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="121"/>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="117"/>
-      <c r="AG14" s="118"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="129"/>
+      <c r="AB14" s="129"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="129"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="127"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="20"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="122"/>
-      <c r="AF15" s="117"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="129"/>
+      <c r="AA15" s="129"/>
+      <c r="AB15" s="129"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="129"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="125"/>
+      <c r="AG15" s="126"/>
+      <c r="AH15" s="126"/>
+      <c r="AI15" s="127"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="20"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="122"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
+      <c r="AB16" s="129"/>
+      <c r="AC16" s="129"/>
+      <c r="AD16" s="129"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="127"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="122"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="118"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="119"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="129"/>
+      <c r="AA17" s="129"/>
+      <c r="AB17" s="129"/>
+      <c r="AC17" s="129"/>
+      <c r="AD17" s="129"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="126"/>
+      <c r="AI17" s="127"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="20"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="122"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="129"/>
+      <c r="V18" s="129"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="129"/>
+      <c r="Y18" s="129"/>
+      <c r="Z18" s="129"/>
+      <c r="AA18" s="129"/>
+      <c r="AB18" s="129"/>
+      <c r="AC18" s="129"/>
+      <c r="AD18" s="129"/>
+      <c r="AE18" s="130"/>
+      <c r="AF18" s="125"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="126"/>
+      <c r="AI18" s="127"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="121"/>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="129"/>
+      <c r="AA19" s="129"/>
+      <c r="AB19" s="129"/>
+      <c r="AC19" s="129"/>
+      <c r="AD19" s="129"/>
+      <c r="AE19" s="130"/>
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="126"/>
+      <c r="AH19" s="126"/>
+      <c r="AI19" s="127"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="20"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="121"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="121"/>
-      <c r="AD20" s="121"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="118"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="129"/>
+      <c r="Z20" s="129"/>
+      <c r="AA20" s="129"/>
+      <c r="AB20" s="129"/>
+      <c r="AC20" s="129"/>
+      <c r="AD20" s="129"/>
+      <c r="AE20" s="130"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="126"/>
+      <c r="AH20" s="126"/>
+      <c r="AI20" s="127"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="20"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="122"/>
-      <c r="AF21" s="117"/>
-      <c r="AG21" s="118"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="129"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="129"/>
+      <c r="Z21" s="129"/>
+      <c r="AA21" s="129"/>
+      <c r="AB21" s="129"/>
+      <c r="AC21" s="129"/>
+      <c r="AD21" s="129"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="125"/>
+      <c r="AG21" s="126"/>
+      <c r="AH21" s="126"/>
+      <c r="AI21" s="127"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="20"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="121"/>
-      <c r="AD22" s="121"/>
-      <c r="AE22" s="122"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="118"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="129"/>
+      <c r="V22" s="129"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="129"/>
+      <c r="Y22" s="129"/>
+      <c r="Z22" s="129"/>
+      <c r="AA22" s="129"/>
+      <c r="AB22" s="129"/>
+      <c r="AC22" s="129"/>
+      <c r="AD22" s="129"/>
+      <c r="AE22" s="130"/>
+      <c r="AF22" s="125"/>
+      <c r="AG22" s="126"/>
+      <c r="AH22" s="126"/>
+      <c r="AI22" s="127"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="20"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="121"/>
-      <c r="AD23" s="121"/>
-      <c r="AE23" s="122"/>
-      <c r="AF23" s="117"/>
-      <c r="AG23" s="118"/>
-      <c r="AH23" s="118"/>
-      <c r="AI23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="129"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="129"/>
+      <c r="AB23" s="129"/>
+      <c r="AC23" s="129"/>
+      <c r="AD23" s="129"/>
+      <c r="AE23" s="130"/>
+      <c r="AF23" s="125"/>
+      <c r="AG23" s="126"/>
+      <c r="AH23" s="126"/>
+      <c r="AI23" s="127"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="20"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="121"/>
-      <c r="AC24" s="121"/>
-      <c r="AD24" s="121"/>
-      <c r="AE24" s="122"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="118"/>
-      <c r="AH24" s="118"/>
-      <c r="AI24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="129"/>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="129"/>
+      <c r="AB24" s="129"/>
+      <c r="AC24" s="129"/>
+      <c r="AD24" s="129"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="125"/>
+      <c r="AG24" s="126"/>
+      <c r="AH24" s="126"/>
+      <c r="AI24" s="127"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="20"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="121"/>
-      <c r="AD25" s="121"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="117"/>
-      <c r="AG25" s="118"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="129"/>
+      <c r="Z25" s="129"/>
+      <c r="AA25" s="129"/>
+      <c r="AB25" s="129"/>
+      <c r="AC25" s="129"/>
+      <c r="AD25" s="129"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="125"/>
+      <c r="AG25" s="126"/>
+      <c r="AH25" s="126"/>
+      <c r="AI25" s="127"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="20"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="121"/>
-      <c r="AC26" s="121"/>
-      <c r="AD26" s="121"/>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="118"/>
-      <c r="AH26" s="118"/>
-      <c r="AI26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="129"/>
+      <c r="X26" s="129"/>
+      <c r="Y26" s="129"/>
+      <c r="Z26" s="129"/>
+      <c r="AA26" s="129"/>
+      <c r="AB26" s="129"/>
+      <c r="AC26" s="129"/>
+      <c r="AD26" s="129"/>
+      <c r="AE26" s="130"/>
+      <c r="AF26" s="125"/>
+      <c r="AG26" s="126"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="127"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="20"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="121"/>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="117"/>
-      <c r="AG27" s="118"/>
-      <c r="AH27" s="118"/>
-      <c r="AI27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="129"/>
+      <c r="Y27" s="129"/>
+      <c r="Z27" s="129"/>
+      <c r="AA27" s="129"/>
+      <c r="AB27" s="129"/>
+      <c r="AC27" s="129"/>
+      <c r="AD27" s="129"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="125"/>
+      <c r="AG27" s="126"/>
+      <c r="AH27" s="126"/>
+      <c r="AI27" s="127"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="20"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="121"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="117"/>
-      <c r="AG28" s="118"/>
-      <c r="AH28" s="118"/>
-      <c r="AI28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="129"/>
+      <c r="V28" s="129"/>
+      <c r="W28" s="129"/>
+      <c r="X28" s="129"/>
+      <c r="Y28" s="129"/>
+      <c r="Z28" s="129"/>
+      <c r="AA28" s="129"/>
+      <c r="AB28" s="129"/>
+      <c r="AC28" s="129"/>
+      <c r="AD28" s="129"/>
+      <c r="AE28" s="130"/>
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="126"/>
+      <c r="AH28" s="126"/>
+      <c r="AI28" s="127"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="20"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="121"/>
-      <c r="AD29" s="121"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="117"/>
-      <c r="AG29" s="118"/>
-      <c r="AH29" s="118"/>
-      <c r="AI29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="129"/>
+      <c r="V29" s="129"/>
+      <c r="W29" s="129"/>
+      <c r="X29" s="129"/>
+      <c r="Y29" s="129"/>
+      <c r="Z29" s="129"/>
+      <c r="AA29" s="129"/>
+      <c r="AB29" s="129"/>
+      <c r="AC29" s="129"/>
+      <c r="AD29" s="129"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="125"/>
+      <c r="AG29" s="126"/>
+      <c r="AH29" s="126"/>
+      <c r="AI29" s="127"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="20"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="118"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="121"/>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="117"/>
-      <c r="AG30" s="118"/>
-      <c r="AH30" s="118"/>
-      <c r="AI30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="129"/>
+      <c r="V30" s="129"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="129"/>
+      <c r="Y30" s="129"/>
+      <c r="Z30" s="129"/>
+      <c r="AA30" s="129"/>
+      <c r="AB30" s="129"/>
+      <c r="AC30" s="129"/>
+      <c r="AD30" s="129"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="125"/>
+      <c r="AG30" s="126"/>
+      <c r="AH30" s="126"/>
+      <c r="AI30" s="127"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="121"/>
-      <c r="AD31" s="121"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="117"/>
-      <c r="AG31" s="118"/>
-      <c r="AH31" s="118"/>
-      <c r="AI31" s="119"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
+      <c r="U31" s="129"/>
+      <c r="V31" s="129"/>
+      <c r="W31" s="129"/>
+      <c r="X31" s="129"/>
+      <c r="Y31" s="129"/>
+      <c r="Z31" s="129"/>
+      <c r="AA31" s="129"/>
+      <c r="AB31" s="129"/>
+      <c r="AC31" s="129"/>
+      <c r="AD31" s="129"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="125"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="126"/>
+      <c r="AI31" s="127"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="20"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
-      <c r="AC32" s="121"/>
-      <c r="AD32" s="121"/>
-      <c r="AE32" s="122"/>
-      <c r="AF32" s="117"/>
-      <c r="AG32" s="118"/>
-      <c r="AH32" s="118"/>
-      <c r="AI32" s="119"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="129"/>
+      <c r="V32" s="129"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="129"/>
+      <c r="Y32" s="129"/>
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="129"/>
+      <c r="AB32" s="129"/>
+      <c r="AC32" s="129"/>
+      <c r="AD32" s="129"/>
+      <c r="AE32" s="130"/>
+      <c r="AF32" s="125"/>
+      <c r="AG32" s="126"/>
+      <c r="AH32" s="126"/>
+      <c r="AI32" s="127"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="121"/>
-      <c r="AD33" s="121"/>
-      <c r="AE33" s="122"/>
-      <c r="AF33" s="117"/>
-      <c r="AG33" s="118"/>
-      <c r="AH33" s="118"/>
-      <c r="AI33" s="119"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="129"/>
+      <c r="V33" s="129"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="129"/>
+      <c r="Y33" s="129"/>
+      <c r="Z33" s="129"/>
+      <c r="AA33" s="129"/>
+      <c r="AB33" s="129"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="129"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="125"/>
+      <c r="AG33" s="126"/>
+      <c r="AH33" s="126"/>
+      <c r="AI33" s="127"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="22"/>
@@ -6351,8 +6352,8 @@
   </sheetPr>
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
@@ -6481,10 +6482,10 @@
         <v>92</v>
       </c>
       <c r="H9" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="41" t="s">
         <v>213</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>214</v>
       </c>
       <c r="J9" s="47"/>
       <c r="K9" s="52"/>
@@ -6565,10 +6566,10 @@
         <v>41</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="54"/>
@@ -6590,7 +6591,7 @@
         <v>199</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J13" s="49"/>
       <c r="K13" s="54"/>
@@ -6612,7 +6613,7 @@
         <v>198</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J14" s="49"/>
       <c r="K14" s="54"/>
@@ -6634,7 +6635,7 @@
         <v>209</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="54"/>
@@ -6656,7 +6657,7 @@
         <v>200</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="54"/>
@@ -6678,7 +6679,7 @@
         <v>201</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J17" s="49"/>
       <c r="K17" s="54"/>
@@ -6700,7 +6701,7 @@
         <v>202</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="54"/>
@@ -6722,7 +6723,7 @@
         <v>125</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J19" s="49"/>
       <c r="K19" s="54"/>
@@ -6798,7 +6799,7 @@
         <v>146</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J22" s="49"/>
       <c r="K22" s="54"/>
@@ -6820,7 +6821,7 @@
         <v>195</v>
       </c>
       <c r="I23" s="48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J23" s="49"/>
       <c r="K23" s="54"/>
@@ -6941,18 +6942,18 @@
       <c r="D28" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="179"/>
+      <c r="E28" s="111"/>
       <c r="F28" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="182" t="s">
+      <c r="G28" s="114" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" s="48" t="s">
         <v>216</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>217</v>
       </c>
       <c r="J28" s="49"/>
       <c r="K28" s="54"/>
@@ -6963,16 +6964,16 @@
     <row r="29" spans="1:14" s="29" customFormat="1" ht="68" customHeight="1">
       <c r="A29" s="39"/>
       <c r="B29" s="63"/>
-      <c r="C29" s="178"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="62"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" s="48" t="s">
         <v>218</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>219</v>
       </c>
       <c r="J29" s="49"/>
       <c r="K29" s="54"/>
@@ -6997,10 +6998,10 @@
         <v>104</v>
       </c>
       <c r="H30" s="107" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="I30" s="107" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="J30" s="108"/>
       <c r="K30" s="109"/>
@@ -7028,7 +7029,7 @@
         <v>196</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J31" s="49"/>
       <c r="K31" s="54"/>
@@ -7053,10 +7054,10 @@
         <v>105</v>
       </c>
       <c r="H32" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I32" s="48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="54"/>
@@ -7073,10 +7074,10 @@
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I33" s="48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J33" s="49"/>
       <c r="K33" s="54"/>
@@ -7093,10 +7094,10 @@
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
       <c r="H34" s="48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I34" s="48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J34" s="49"/>
       <c r="K34" s="54"/>
@@ -7137,24 +7138,24 @@
       <c r="N35" s="70"/>
     </row>
     <row r="36" spans="1:14" s="29" customFormat="1" ht="136.5" customHeight="1">
-      <c r="A36" s="183"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="185" t="s">
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="F36" s="185" t="s">
+      <c r="H36" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="I36" s="107" t="s">
         <v>228</v>
-      </c>
-      <c r="G36" s="185" t="s">
-        <v>229</v>
-      </c>
-      <c r="H36" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="I36" s="107" t="s">
-        <v>230</v>
       </c>
       <c r="J36" s="108"/>
       <c r="K36" s="109"/>
@@ -7163,18 +7164,18 @@
       <c r="N36" s="108"/>
     </row>
     <row r="37" spans="1:14" s="29" customFormat="1" ht="60" customHeight="1">
-      <c r="A37" s="183"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
       <c r="H37" s="107" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I37" s="107" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J37" s="108"/>
       <c r="K37" s="109"/>
@@ -7193,7 +7194,7 @@
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
       <c r="H38" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I38" s="48" t="s">
         <v>137</v>
@@ -7215,7 +7216,7 @@
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
       <c r="H39" s="48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I39" s="48" t="s">
         <v>137</v>
@@ -7237,7 +7238,7 @@
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
       <c r="H40" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I40" s="48" t="s">
         <v>137</v>
@@ -7259,7 +7260,7 @@
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
       <c r="H41" s="48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I41" s="48" t="s">
         <v>137</v>
@@ -7281,7 +7282,7 @@
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
       <c r="H42" s="48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I42" s="48" t="s">
         <v>137</v>
@@ -7303,7 +7304,7 @@
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
       <c r="H43" s="48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I43" s="48" t="s">
         <v>137</v>
@@ -7325,7 +7326,7 @@
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
       <c r="H44" s="48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I44" s="48" t="s">
         <v>137</v>
@@ -7345,10 +7346,10 @@
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
       <c r="H45" s="48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I45" s="48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J45" s="49"/>
       <c r="K45" s="54"/>
@@ -7482,7 +7483,7 @@
         <v>210</v>
       </c>
       <c r="I50" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J50" s="49"/>
       <c r="K50" s="54"/>
@@ -7501,10 +7502,10 @@
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
       <c r="H51" s="48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I51" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J51" s="49"/>
       <c r="K51" s="54"/>
@@ -7529,10 +7530,10 @@
         <v>27</v>
       </c>
       <c r="H52" s="48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I52" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J52" s="49"/>
       <c r="K52" s="54"/>
@@ -7551,10 +7552,10 @@
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
       <c r="H53" s="87" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I53" s="48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J53" s="49"/>
       <c r="K53" s="54"/>
@@ -7605,10 +7606,10 @@
         <v>27</v>
       </c>
       <c r="H55" s="48" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I55" s="48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J55" s="49"/>
       <c r="K55" s="54"/>
@@ -7627,10 +7628,10 @@
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
       <c r="H56" s="48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I56" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J56" s="49"/>
       <c r="K56" s="54"/>
@@ -7649,10 +7650,10 @@
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
       <c r="H57" s="48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I57" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J57" s="49"/>
       <c r="K57" s="54"/>
@@ -7671,10 +7672,10 @@
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
       <c r="H58" s="48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I58" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J58" s="49"/>
       <c r="K58" s="54"/>
@@ -7693,10 +7694,10 @@
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
       <c r="H59" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I59" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J59" s="49"/>
       <c r="K59" s="54"/>
@@ -7718,7 +7719,7 @@
         <v>201</v>
       </c>
       <c r="I60" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J60" s="49"/>
       <c r="K60" s="54"/>
@@ -7737,10 +7738,10 @@
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
       <c r="H61" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I61" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J61" s="49"/>
       <c r="K61" s="54"/>
@@ -7757,7 +7758,7 @@
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
       <c r="H62" s="48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I62" s="48"/>
       <c r="J62" s="49"/>
@@ -7777,10 +7778,10 @@
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
       <c r="H63" s="48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I63" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J63" s="49"/>
       <c r="K63" s="54"/>
@@ -7805,10 +7806,10 @@
         <v>27</v>
       </c>
       <c r="H64" s="48" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I64" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J64" s="49"/>
       <c r="K64" s="54"/>
@@ -7827,10 +7828,10 @@
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
       <c r="H65" s="48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I65" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J65" s="49"/>
       <c r="K65" s="54"/>
@@ -7849,10 +7850,10 @@
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
       <c r="H66" s="48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I66" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J66" s="49"/>
       <c r="K66" s="54"/>
@@ -7871,10 +7872,10 @@
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I67" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J67" s="49"/>
       <c r="K67" s="54"/>
@@ -7893,10 +7894,10 @@
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
       <c r="H68" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I68" s="48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J68" s="49"/>
       <c r="K68" s="54"/>
@@ -7918,7 +7919,7 @@
         <v>201</v>
       </c>
       <c r="I69" s="48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J69" s="49"/>
       <c r="K69" s="54"/>
@@ -7937,10 +7938,10 @@
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
       <c r="H70" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I70" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J70" s="49"/>
       <c r="K70" s="54"/>
@@ -7957,7 +7958,7 @@
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I71" s="48"/>
       <c r="J71" s="49"/>
@@ -7977,10 +7978,10 @@
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
       <c r="H72" s="48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I72" s="48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J72" s="49"/>
       <c r="K72" s="54"/>
@@ -8020,10 +8021,10 @@
       </c>
       <c r="B74" s="77"/>
       <c r="C74" s="77"/>
-      <c r="D74" s="173" t="s">
+      <c r="D74" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="E74" s="174"/>
+      <c r="E74" s="182"/>
       <c r="F74" s="79" t="s">
         <v>17</v>
       </c>
@@ -8127,11 +8128,11 @@
       <c r="B78" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="175" t="s">
+      <c r="C78" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="D78" s="176"/>
-      <c r="E78" s="177"/>
+      <c r="D78" s="184"/>
+      <c r="E78" s="185"/>
       <c r="F78" s="55" t="s">
         <v>14</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>172</v>
       </c>
       <c r="I79" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J79" s="93"/>
       <c r="K79" s="95"/>
@@ -8186,7 +8187,7 @@
         <v>173</v>
       </c>
       <c r="I80" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J80" s="93"/>
       <c r="K80" s="95"/>
@@ -8208,7 +8209,7 @@
         <v>174</v>
       </c>
       <c r="I81" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J81" s="93"/>
       <c r="K81" s="95"/>
@@ -8230,7 +8231,7 @@
         <v>175</v>
       </c>
       <c r="I82" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J82" s="93"/>
       <c r="K82" s="95"/>
@@ -8252,7 +8253,7 @@
         <v>197</v>
       </c>
       <c r="I83" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J83" s="93"/>
       <c r="K83" s="95"/>
@@ -8274,7 +8275,7 @@
         <v>176</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J84" s="93"/>
       <c r="K84" s="95"/>
@@ -8296,7 +8297,7 @@
         <v>177</v>
       </c>
       <c r="I85" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J85" s="93"/>
       <c r="K85" s="95"/>
@@ -8318,7 +8319,7 @@
         <v>178</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J86" s="93"/>
       <c r="K86" s="95"/>
@@ -8340,7 +8341,7 @@
         <v>179</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J87" s="93"/>
       <c r="K87" s="95"/>

--- a/単体テスト仕様書_取引単体(画面)_W11AA01_ユーザ登録_A1.xlsx
+++ b/単体テスト仕様書_取引単体(画面)_W11AA01_ユーザ登録_A1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F413E23E-80EB-4346-A1B5-1879259CE202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1AFACA4-2C2B-4F21-A001-4177EA9C2945}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D24522E-311E-45D5-9F58-012ACB76CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12000" tabRatio="445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="画面" sheetId="24" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">画面!$A$8:$N$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">画面!$A$1:$N$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">画面!$A$8:$N$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">画面!$A$1:$N$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">画面!$1:$8</definedName>
@@ -62,21 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="264">
-  <si>
-    <t>更新者：</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新日：</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="301">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -984,32 +970,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①管理者でログイン
-②管理者メニューから[ユーザ登録]を押下
-③ユーザ情報を入力し、[登録確認]を押下
-④[戻る]を押下
-戻るイベントが正しく実行されることを確認</t>
-    <rPh sb="54" eb="55">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1129,10 +1089,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共通エラー画面が表示される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ログインID重複精査エラー（ユーザ登録画面）】
 既に使用されているログインIDを入力し、
 [登録確認]を押下
@@ -1144,50 +1100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【システム管理者権限エラー】
-①一般ユーザでログイン
-②ブラウザのアドレスバーにユーザ登録画面のURLを入力
-③ユーザ情報を入力し、[登録確認]を押下
-③ユーザ登録確認画面で[登録する]を押下</t>
-    <rPh sb="5" eb="8">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面が表示される
-遷移前の入力内容が復元されて表示される
-ただし、パスワードとパスワード（確認）は復元されない</t>
-    <rPh sb="3" eb="7">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>フクゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>15-2-2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1253,10 +1165,6 @@
   </si>
   <si>
     <t>4-1-7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4-1-8</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1459,14 +1367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①管理者でログイン
-②管理者メニューから[ユーザ登録]を押下
-③ユーザ情報を入力し、[登録確認]を押下
-④[登録する]を押下
-⑤ユーザ登録完了画面を再読み込み</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「パスワード」「パスワード（確認）」パスワード入力の挙動を目視で確認</t>
     <rPh sb="14" eb="16">
       <t>カクニン</t>
@@ -1559,51 +1459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ登録画面が表示される
-遷移前の入力内容が復元されて表示される
-ただし、パスワードとパスワード（確認）は復元されない
-エラーメッセージが表示される
-エラーメッセージについては
-メッセージ設計書参照</t>
-    <rPh sb="70" eb="72">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="95" eb="98">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①管理者でログイン
-②管理者メニューから[ユーザ登録]を押下
-③何も入力せずに[登録確認]を押下
-※精査NGにつき、ユーザ登録画面が表示される
-④ユーザ情報を入力し、[登録確認]を押下
-⑤[登録する]を押下</t>
-    <rPh sb="32" eb="33">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="61" eb="65">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ登録完了画面が表示される</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
@@ -1623,47 +1478,6 @@
     <t>ユーザ登録完了画面が表示される</t>
     <rPh sb="5" eb="7">
       <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①管理者でログイン
-②管理者メニューから[ユーザ登録]を押下
-③ユーザ情報を入力し、[登録確認]を押下
-④データべースに接続し、アカウントテーブルに③で入力したものと同じログインIDを登録
-⑤ユーザ登録確認画面で[登録する]を押下
-※精査NGにつき、ユーザ登録画面が表示される
-⑥ユーザ情報を入力し、[登録確認]を押下
-⑦[登録する]を押下</t>
-    <rPh sb="1" eb="4">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="99" eb="105">
-      <t>トウロクカクニンガメン</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1707,36 +1521,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録完了画面が表示される
-データベースに同じデータが２件登録されていない</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>カンリョウガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①管理者でログイン
-②管理者メニューから[ユーザ登録]を押下
-③ユーザ情報を入力し、[登録確認]を押下
-④[登録する]を押下</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>次のように画面遷移する
 ユーザ登録画面→ユーザ登録確認画面→ユーザ登録完了画面
 ユーザ登録確認画面にユーザ登録画面で入力したユーザ情報が表示される
@@ -1787,33 +1571,6 @@
   </si>
   <si>
     <t>ユーザー登録画面に遷移する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①管理者でログイン
-②管理者メニューから[ユーザ登録]を押下
-③部署のプルダウンリストが部署IDの昇順にソートされることを確認</t>
-    <rPh sb="61" eb="63">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署のプルダウンリストが部署IDの昇順にソートされる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①管理者でログイン
-②管理者メニューから[ユーザ登録]を押下
-③ユーザ情報を入力し、[登録確認]を押下
-④ユーザ登録確認画面で編集仕様通り、パスワードがマスキングされることを確認</t>
-    <rPh sb="87" eb="89">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録確認画面で編集仕様通り、パスワードがマスキングされる</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1893,16 +1650,804 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ユーザ権限】</t>
+    <t>UI標準の仕様通りに機能する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI標準の仕様通りに機能する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【【部署ID精査エラー】
+開発者ツールを使い、部署選択のプルダウンリストのvalue属性に、部署テーブルに存在しない部署IDを入力し、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ログインID重複精査エラー（ユーザ登録画面）】
+既に使用されているログインIDを入力し、
+[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ログインID】
+全角英数字（ドメイン定義書で精査NGとされている文字種）のログインIDを入力し、
+[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <rPh sb="9" eb="11">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>モジシュ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ログインID】
+全角英数字（ドメイン定義書で精査NGとされている文字種）のログインIDを入力し、
+[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【氏名（姓）】
+半角文字（ドメイン定義書で精査NGとされている文字種）の氏名（姓）を入力し、
+[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【氏名（名）】
+半角文字（ドメイン定義書で精査NGとされている文字種）の氏名（名）を入力し、
+[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【部署】
+開発者ツールを使い、部署選択のプルダウンリストのvalue属性に、全角数字（ドメイン定義書で精査NGとされている文字種）の部署IDを入力し、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【メールアドレス】
+@を含まない（ドメイン定義書で精査NGとされている形式）メールアドレスを入力し、
+[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パスワード（確認）】
+全角英数字のパスワード（ドメイン定義書で精査NGとされている文字種）（確認）を入力し、
+[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【入力パスワードエラー】
+パスワードとパスワード(確認)に異なる値を入力して、
+[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージが共通エラー・メッセージ表示領域に表示される
+共通エラー・メッセージ表示領域については
+UI標準参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザ登録画面が表示される
+エラーメッセージ「不正な文字種の値が指定されました。」が表示される
+エラーメッセージのレイアウトが仕様通りである
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージ「部署が存在しません。」が表示される
+エラーメッセージのレイアウトが仕様通りである</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージ「不正な文字種の値が指定されました。」が表示される
+エラーメッセージのレイアウトが仕様通りである</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージ「有効なメールアドレスではありません。」が表示される
+エラーメッセージのレイアウトが仕様通りである</t>
+    <rPh sb="23" eb="25">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージ「パスワードが一致しません。」が表示される
+エラーメッセージのレイアウトが仕様通りである</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-2-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-2-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報画面が表示される</t>
+    <rPh sb="3" eb="7">
+      <t>ジョウホウガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ユーザ権限（ユーザ登録画面）】
+①管理者でログイン
+②管理者メニューから[ユーザ登録]を押下
+③ユーザ登録画面のレイアウトを目視で確認</t>
     <rPh sb="4" eb="6">
       <t>ケンゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ユーザ権限（ユーザ登録画面）】</t>
+    <t>ユーザ登録画面が表示される
+エラーメッセージ「ログインID:##は既に使用されています。」（※ただし##は登録画面でユーザが入力した内容）が表示される
+エラーメッセージのレイアウトが仕様通りである</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ユーザ権限】
+開発者ツールを使い、「ユーザ権限」チェックボックスのvalue属性に、有効でないコード値（コード値についてはコード設計書参照）を入力し、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
     <rPh sb="4" eb="6">
       <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ユーザ権限】
+開発者ツールを使い、「ユーザ権限」チェックボックスのvalue属性に、有効でないコード値（コード値についてはコード設計書参照）を入力し、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージ「不正な値が指定されました。」が表示される
+エラーメッセージのレイアウトが仕様通りである</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ログインID】
+何も入力せず、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージ「入力してください。」が表示される
+エラーメッセージのレイアウトが仕様通りである</t>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージ「入力してください。」が表示される
+エラーメッセージのレイアウトが仕様通りである</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージのレイアウトが仕様通りである</t>
+  </si>
+  <si>
+    <t>【氏名（姓）】
+何も入力せず、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【氏名（名）】
+何も入力せず、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【メールアドレス】
+何も入力せず、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パスワード】
+何も入力せず、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パスワード（確認）】
+何も入力せず、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-2-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-2-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-2-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-2-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-2-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-2-15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-2-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【部署】
+何も選択せず、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <rPh sb="1" eb="3">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者：徳重　順哉</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トクシゲ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日：2024/06/18</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のように画面遷移する
+ユーザ登録画面→ユーザ登録確認画面→ユーザ登録画面→ユーザ登録確認画面→ユーザ登録完了画面
+ユーザ登録画面が表示される
+遷移前の入力内容が復元されて表示される
+ただし、パスワードとパスワード（確認）は復元されない
+アカウントテーブル、ユーザテーブルに⑤で入力したユーザ情報が登録されている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のように画面遷移する
+ユーザ登録画面→ユーザ登録確認画面→ユーザ登録画面
+ユーザ登録画面が表示される
+遷移前の入力内容が復元されて表示される
+ただし、パスワードとパスワード（確認）は復元されない</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>フクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ユーザ権限】
+開発者ツールを使い、「ユーザ権限」チェックボックスのvalue属性に、有効でないコード値（コード値についてはコード設計書参照）を入力し、[登録確認]を押下
+【画面遷移】
+ユーザ登録画面(精査NG)→ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面に遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面に遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面に遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通エラー画面に遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">共通エラー画面に遷移する
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージが「ログインID」単行テキスト入力下部に表示される</t>
+    <rPh sb="39" eb="41">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージが「氏名（姓）」単行テキスト入力下部に表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージが「氏名（名）」単行テキスト入力下部に表示される</t>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージが「部署」プルダウンリスト下部に表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージが「メールアドレス」単行テキスト下部に表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージがパスワード入力下部に表示される</t>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージがパスワード入力下部に表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面が表示される
+エラーメッセージが「ユーザ権限」チェックボックス下部に表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①管理者でログイン
+②管理者メニューから[ユーザ登録]を押下
+③ユーザ登録画面で、ユーザ情報を入力し、[登録確認]を押下
+④ユーザ登録確認画面の[戻る]を押下
+</t>
+    <rPh sb="73" eb="74">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①管理者でログイン
+②管理者メニューから[ユーザ登録]を押下
+③ユーザ登録画面画面で、ユーザ情報を入力し、[登録確認]を押下
+④ユーザ登録確認画面で、[登録する]を押下</t>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①管理者でログイン
+②管理者メニューから[ユーザ登録]を押下
+③ユーザ登録画面で、ユーザ情報を入力し、[登録確認]を押下
+④ユーザ登録確認画面の[戻る]を押下
+⑤ユーザ登録画面で、ユーザ情報を変更し、[登録確認]を押下
+⑥ユーザ登録確認画面で、[登録する]を押下</t>
+    <rPh sb="116" eb="118">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【システム管理者権限エラー】
+①一般ユーザでログイン
+②ブラウザのアドレスバーにユーザ登録画面のURLを入力
+③ユーザ登録画面で、ユーザ情報を入力し、[登録確認]を押下
+③ユーザ登録確認画面で、[登録する]を押下</t>
+    <rPh sb="5" eb="8">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①管理者でログイン
+②管理者メニューから[ユーザ登録]を押下
+③ユーザ登録画面で、何も入力せずに[登録確認]を押下
+※精査NGにつき、ユーザ登録画面が表示される
+④ユーザ登録画面で、ユーザ情報を入力し、[登録確認]を押下
+⑤ユーザ登録確認画面で、[登録する]を押下</t>
+    <rPh sb="41" eb="42">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①管理者でログイン
+②管理者メニューから[ユーザ登録]を押下
+③ユーザ登録画面で、ユーザ情報を入力し、[登録確認]を押下
+④データべースに接続し、アカウントテーブルに③で入力したものと同じログインIDを登録
+⑤ユーザ登録確認画面で、[登録する]を押下
+※精査NGにつき、ユーザ登録画面が表示される
+⑥ユーザ登録画面で、ユーザ情報を入力し、[登録確認]を押下
+⑦ユーザ登録確認画面で、[登録する]を押下</t>
+    <rPh sb="1" eb="4">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="108" eb="114">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①一般ユーザでログイン
+②ブラウザのアドレスバーにユーザ登録画面のURLを入力
+③ユーザ登録画面で、ユーザ情報を入力し、[登録確認]を押下
+④ユーザ登録確認画面で、[登録する]を押下
+※システム管理者権限エラーにつき、共通エラー画面が表示される
+⑤共通エラー画面で、ヘッダーから、プロフィールを押下
+⑤は他の操作でもかまわない
+エラー発生後に操作を継続できることを確認</t>
+    <rPh sb="97" eb="102">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="168" eb="171">
+      <t>ハッセイゴ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①管理者でログイン
+②管理者メニューから[ユーザ登録]を押下
+③ユーザ登録画面で、部署のプルダウンリストが部署IDの昇順にソートされることを確認</t>
+    <rPh sb="70" eb="72">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面で、部署のプルダウンリストが部署IDの昇順にソートされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①管理者でログイン
+②管理者メニューから[ユーザ登録]を押下
+③ユーザ登録画面で、ユーザ情報を入力し、[登録確認]を押下
+④ユーザ登録確認画面で、編集仕様通り、パスワードがマスキングされることを確認</t>
+    <rPh sb="97" eb="99">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録確認画面で、編集仕様通り、パスワードがマスキングされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録確認画面で、[登録する]ボタンを押下後、[登録する]ボタンがクリックできない状態(disabled属性により非活性)であることを確認</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録確認画面で、[登録する]ボタンを押下後、[登録する]ボタンがクリックできない状態(disabled属性により非活性)である</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①同じブラウザでタブを二つ開く
+（以下タブ１、タブ２と呼ぶ）
+②タブ１、タブ２でそれぞれユーザ登録画面を表示させる。
+③タブ1でユーザ登録画面で、各項目を入力し「登録確認」を押下。
+④タブ２でユーザ登録画面で、各項目を入力し「登録確認」を押下
+⑤タブ２でユーザ登録確認画面で「登録する」を押下。
+⑥タブ１でユーザ登録確認画面で「登録する」を押下。</t>
+    <rPh sb="11" eb="12">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1910,35 +2455,37 @@
     <t>【ログインID（ユーザ登録確認画面）】
 ①管理者でログイン
 ②管理者メニューから[ユーザ登録]を押下
-③各項目に最大長データを入力し、[登録確認]を押下
+③ユーザ登録画面で、各項目に最大長データを入力し、[登録確認]を押下
 文字種、最大長ならびに使用する最大幅データについてはそれぞれ以下を参照
 ・文字種：ドメイン定義書
 ・最大長：テーブル定義書
 ・最大幅データ：単体テスト標準
-④ユーザ登録確認画面のレイアウトを
-目視で確認</t>
+④ユーザ登録確認画面のレイアウトを目視で確認</t>
     <rPh sb="13" eb="15">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="77" eb="80">
+    <rPh sb="55" eb="59">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="86" eb="89">
       <t>モジシュ</t>
     </rPh>
-    <rPh sb="114" eb="117">
+    <rPh sb="123" eb="126">
       <t>モジシュ</t>
     </rPh>
-    <rPh sb="122" eb="125">
+    <rPh sb="131" eb="134">
       <t>テイギショ</t>
     </rPh>
-    <rPh sb="159" eb="163">
+    <rPh sb="168" eb="172">
       <t>トウロクカクニン</t>
     </rPh>
-    <rPh sb="163" eb="165">
+    <rPh sb="172" eb="174">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="173" eb="175">
+    <rPh sb="181" eb="183">
       <t>モクシ</t>
     </rPh>
-    <rPh sb="176" eb="178">
+    <rPh sb="184" eb="186">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1947,7 +2494,7 @@
     <t>【氏名（姓）（ユーザ登録確認画面）】
 ①管理者でログイン
 ②管理者メニューから[ユーザ登録]を押下
-③各項目に最大長データを入力し、[登録確認]を押下
+③ユーザ登録画面で、各項目に最大長データを入力し、[登録確認]を押下
 文字種、最大長ならびに使用する最大幅データについてはそれぞれ以下を参照
 ・文字種：ドメイン定義書
 ・最大長：テーブル定義書
@@ -1963,18 +2510,8 @@
     <rPh sb="12" eb="14">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ユーザ権限（ユーザ登録確認画面）】</t>
-    <rPh sb="4" eb="6">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>カクニンガメン</t>
+    <rPh sb="54" eb="58">
+      <t>トウロクガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1982,7 +2519,7 @@
     <t>【氏名（名）（ユーザ登録確認画面）】
 ①管理者でログイン
 ②管理者メニューから[ユーザ登録]を押下
-③各項目に最大長データを入力し、[登録確認]を押下
+③ユーザ登録画面で、各項目に最大長データを入力し、[登録確認]を押下
 文字種、最大長ならびに使用する最大幅データについてはそれぞれ以下を参照
 ・文字種：ドメイン定義書
 ・最大長：テーブル定義書
@@ -1992,6 +2529,9 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
+    <rPh sb="54" eb="58">
+      <t>トウロクガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2003,7 +2543,7 @@
 ・最大幅データ：単体テスト標準
 ②管理者でログイン
 ③管理者メニューから[ユーザ登録]を押下
-④①で登録した部署を選択し、[登録確認]を押下
+④ユーザ登録画面で、①で登録した部署を選択し、[登録確認]を押下
 ⑤ユーザ登録確認画面のレイアウトを
 目視で確認</t>
     <rPh sb="30" eb="32">
@@ -2015,13 +2555,16 @@
     <rPh sb="51" eb="53">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="166" eb="168">
+    <rPh sb="167" eb="171">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="175" eb="177">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="170" eb="172">
+    <rPh sb="179" eb="181">
       <t>ブショ</t>
     </rPh>
-    <rPh sb="173" eb="175">
+    <rPh sb="182" eb="184">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2030,250 +2573,36 @@
     <t>【メールアドレス（ユーザ登録確認画面）】
 ①管理者でログイン
 ②管理者メニューから[ユーザ登録]を押下
-③各項目に最大長データを入力し、[登録確認]を押下
+③ユーザ登録画面で、各項目に最大長データを入力し、[登録確認]を押下
 文字種、最大長ならびに使用する最大幅データについてはそれぞれ以下を参照
 ・文字種：ドメイン定義書
 ・最大長：テーブル定義書
 ・最大幅データ：単体テスト標準
 ④ユーザ登録確認画面のレイアウトを
 目視で確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【パスワード（ユーザ登録確認画面）】
-ケースNo11-2-①管理者でログイン
-②管理者メニューから[ユーザ登録]を押下
-③各項目に最大長データを入力し、[登録確認]を押下
-文字種、最大長ならびに使用する最大幅データについてはそれぞれ以下を参照
-・文字種：ドメイン定義書
-・最大長：テーブル定義書
-・最大幅データ：単体テスト標準
-④ユーザ登録確認画面のレイアウトを
-目視で確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【パスワード（確認）（ユーザ登録確認画面）】
+    <rPh sb="56" eb="60">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ユーザ権限（ユーザ登録確認画面）】
 ①管理者でログイン
 ②管理者メニューから[ユーザ登録]を押下
-③各項目に最大長データを入力し、[登録確認]を押下
-文字種、最大長ならびに使用する最大幅データについてはそれぞれ以下を参照
-・文字種：ドメイン定義書
-・最大長：テーブル定義書
-・最大幅データ：単体テスト標準
-④ユーザ登録確認画面のレイアウトを
-目視で確認</t>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI標準の仕様通りに機能する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI標準の仕様通りに機能する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面が表示される
-遷移前の入力内容が復元されて表示される
-ただし、パスワードとパスワード（確認）は復元されない
-エラーメッセージが表示される
-エラーメッセージについては
-メッセージ設計書参照</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【【部署ID精査エラー】
-開発者ツールを使い、部署選択のプルダウンリストのvalue属性に、部署テーブルに存在しない部署IDを入力し、[登録確認]を押下
-【画面遷移】
-ユーザ登録画面(精査NG)→ユーザ登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ログインID重複精査エラー（ユーザ登録画面）】
-既に使用されているログインIDを入力し、
-[登録確認]を押下
-【画面遷移】
-ユーザ登録画面(精査NG)→ユーザ登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ログインID】
-全角英数字（ドメイン定義書で精査NGとされている文字種）のログインIDを入力し、
-[登録確認]を押下
-【画面遷移】
-ユーザ登録画面(精査NG)→ユーザ登録画面</t>
-    <rPh sb="9" eb="11">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>モジシュ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
+③ユーザ登録画面で、ユーザ情報を入力し、システム管理者にチェックを入れ、[ユーザ登録]を押下
+④ユーザ登録確認画面のレイアウトを目視で確認</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="53" eb="55">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ログインID】
-全角英数字（ドメイン定義書で精査NGとされている文字種）のログインIDを入力し、
-[登録確認]を押下
-【画面遷移】
-ユーザ登録画面(精査NG)→ユーザ登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【氏名（姓）】
-半角文字（ドメイン定義書で精査NGとされている文字種）の氏名（姓）を入力し、
-[登録確認]を押下
-【画面遷移】
-ユーザ登録画面(精査NG)→ユーザ登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【氏名（名）】
-半角文字（ドメイン定義書で精査NGとされている文字種）の氏名（名）を入力し、
-[登録確認]を押下
-【画面遷移】
-ユーザ登録画面(精査NG)→ユーザ登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【部署】
-開発者ツールを使い、部署選択のプルダウンリストのvalue属性に、全角数字（ドメイン定義書で精査NGとされている文字種）の部署IDを入力し、[登録確認]を押下
-【画面遷移】
-ユーザ登録画面(精査NG)→ユーザ登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【メールアドレス】
-@を含まない（ドメイン定義書で精査NGとされている形式）メールアドレスを入力し、
-[登録確認]を押下
-【画面遷移】
-ユーザ登録画面(精査NG)→ユーザ登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【パスワード（確認）】
-全角英数字のパスワード（ドメイン定義書で精査NGとされている文字種）（確認）を入力し、
-[登録確認]を押下
-【画面遷移】
-ユーザ登録画面(精査NG)→ユーザ登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【入力パスワードエラー】
-パスワードとパスワード(確認)に異なる値を入力して、
-[登録確認]を押下
-【画面遷移】
-ユーザ登録画面(精査NG)→ユーザ登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面が表示される
-エラーメッセージが共通エラー・メッセージ表示領域に表示される
-共通エラー・メッセージ表示領域については
-UI標準参照</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面が表示される
-エラーメッセージが入力ファーム下部に表示される</t>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面が表示される
-エラーメッセージが入力ファーム下部に表示される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザ登録画面が表示される
-エラーメッセージ「不正な文字種の値が指定されました。」が表示される
-エラーメッセージのレイアウトが仕様通りである
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面が表示される
-エラーメッセージ「部署が存在しません。」が表示される
-エラーメッセージのレイアウトが仕様通りである</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面が表示される
-エラーメッセージ「ログインID:{0}は既に使用されています。」が表示される
-エラーメッセージのレイアウトが仕様通りである</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面が表示される
-エラーメッセージ「不正な文字種の値が指定されました。」が表示される
-エラーメッセージのレイアウトが仕様通りである</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面が表示される
-エラーメッセージ「有効なメールアドレスではありません。」が表示される
-エラーメッセージのレイアウトが仕様通りである</t>
-    <rPh sb="23" eb="25">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録画面が表示される
-エラーメッセージ「パスワードが一致しません。」が表示される
-エラーメッセージのレイアウトが仕様通りである</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録する]ボタンを押下後、[登録する]ボタンがクリックできない状態(disabled属性により非活性)であることを確認</t>
-    <rPh sb="10" eb="13">
-      <t>オウカゴ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録する]ボタンを押下後、[登録する]ボタンがクリックできない状態(disabled属性により非活性)である</t>
+    <rPh sb="12" eb="16">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="54" eb="58">
+      <t>トウロクガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2981,7 +3310,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -3078,9 +3407,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3120,9 +3446,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -3304,6 +3627,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4023,10 +4349,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -4319,7 +4641,7 @@
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
   <cols>
@@ -4361,7 +4683,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1">
@@ -4373,12 +4695,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="118">
+      <c r="I25" s="117">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>45460</v>
       </c>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -4414,7 +4736,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
       <c r="J32" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="19">
@@ -4426,12 +4748,12 @@
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="6:10" ht="13.5" customHeight="1">
-      <c r="J35" s="64" t="s">
-        <v>121</v>
+      <c r="J35" s="62" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="6:10" ht="13.5" customHeight="1"/>
@@ -4932,7 +5254,7 @@
   </sheetPr>
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4942,57 +5264,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="150" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="168" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="154" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="160" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="169" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="151" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="177" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>徳重　順哉</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="179"/>
+      <c r="AG1" s="144">
         <f>IF(D8="","",D8)</f>
         <v>45460</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="146"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -5000,53 +5322,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="151" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="151" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="157" t="str">
+      <c r="A2" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="150" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="156" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="144" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -5054,45 +5376,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="151" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="153"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="A3" s="150" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="178"/>
+      <c r="AF3" s="179"/>
+      <c r="AG3" s="144"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="146"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -5101,7 +5423,7 @@
     </row>
     <row r="5" spans="1:40" s="13" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
@@ -5127,1030 +5449,1030 @@
     </row>
     <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="147" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="148"/>
+      <c r="D7" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="E7" s="149"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="149"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="148" t="s">
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="148" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="150"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="148" t="s">
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="148"/>
+      <c r="AF7" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="148" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="149"/>
-      <c r="AF7" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="149"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="148"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A8" s="57">
+      <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="132">
+      <c r="B8" s="131">
         <v>1</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134">
+      <c r="C8" s="132"/>
+      <c r="D8" s="133">
         <v>45460</v>
       </c>
-      <c r="E8" s="135"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="138"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="139" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="143"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="139" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="140"/>
-      <c r="AI8" s="141"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="137"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="142"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="140"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="20"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="129"/>
-      <c r="AB9" s="129"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="129"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="125"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="127"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="124"/>
+      <c r="AG9" s="125"/>
+      <c r="AH9" s="125"/>
+      <c r="AI9" s="126"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="20"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
-      <c r="U10" s="129"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="127"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="125"/>
+      <c r="AH10" s="125"/>
+      <c r="AI10" s="126"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="20"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="126"/>
-      <c r="AI11" s="127"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="125"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="126"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="20"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129"/>
-      <c r="X12" s="129"/>
-      <c r="Y12" s="129"/>
-      <c r="Z12" s="129"/>
-      <c r="AA12" s="129"/>
-      <c r="AB12" s="129"/>
-      <c r="AC12" s="129"/>
-      <c r="AD12" s="129"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="125"/>
-      <c r="AG12" s="126"/>
-      <c r="AH12" s="126"/>
-      <c r="AI12" s="127"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="129"/>
+      <c r="AF12" s="124"/>
+      <c r="AG12" s="125"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="126"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="20"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="129"/>
-      <c r="Z13" s="129"/>
-      <c r="AA13" s="129"/>
-      <c r="AB13" s="129"/>
-      <c r="AC13" s="129"/>
-      <c r="AD13" s="129"/>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="125"/>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="126"/>
-      <c r="AI13" s="127"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="129"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="126"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="20"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129"/>
-      <c r="U14" s="129"/>
-      <c r="V14" s="129"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="129"/>
-      <c r="Y14" s="129"/>
-      <c r="Z14" s="129"/>
-      <c r="AA14" s="129"/>
-      <c r="AB14" s="129"/>
-      <c r="AC14" s="129"/>
-      <c r="AD14" s="129"/>
-      <c r="AE14" s="130"/>
-      <c r="AF14" s="125"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="127"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="128"/>
+      <c r="AD14" s="128"/>
+      <c r="AE14" s="129"/>
+      <c r="AF14" s="124"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="126"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="20"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
-      <c r="Z15" s="129"/>
-      <c r="AA15" s="129"/>
-      <c r="AB15" s="129"/>
-      <c r="AC15" s="129"/>
-      <c r="AD15" s="129"/>
-      <c r="AE15" s="130"/>
-      <c r="AF15" s="125"/>
-      <c r="AG15" s="126"/>
-      <c r="AH15" s="126"/>
-      <c r="AI15" s="127"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="129"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="125"/>
+      <c r="AH15" s="125"/>
+      <c r="AI15" s="126"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="20"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="129"/>
-      <c r="AA16" s="129"/>
-      <c r="AB16" s="129"/>
-      <c r="AC16" s="129"/>
-      <c r="AD16" s="129"/>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="126"/>
-      <c r="AI16" s="127"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="129"/>
+      <c r="AF16" s="124"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="125"/>
+      <c r="AI16" s="126"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
-      <c r="Z17" s="129"/>
-      <c r="AA17" s="129"/>
-      <c r="AB17" s="129"/>
-      <c r="AC17" s="129"/>
-      <c r="AD17" s="129"/>
-      <c r="AE17" s="130"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="126"/>
-      <c r="AH17" s="126"/>
-      <c r="AI17" s="127"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="129"/>
+      <c r="AF17" s="124"/>
+      <c r="AG17" s="125"/>
+      <c r="AH17" s="125"/>
+      <c r="AI17" s="126"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="20"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
-      <c r="U18" s="129"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="129"/>
-      <c r="Y18" s="129"/>
-      <c r="Z18" s="129"/>
-      <c r="AA18" s="129"/>
-      <c r="AB18" s="129"/>
-      <c r="AC18" s="129"/>
-      <c r="AD18" s="129"/>
-      <c r="AE18" s="130"/>
-      <c r="AF18" s="125"/>
-      <c r="AG18" s="126"/>
-      <c r="AH18" s="126"/>
-      <c r="AI18" s="127"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="129"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="125"/>
+      <c r="AH18" s="125"/>
+      <c r="AI18" s="126"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="129"/>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="129"/>
-      <c r="AC19" s="129"/>
-      <c r="AD19" s="129"/>
-      <c r="AE19" s="130"/>
-      <c r="AF19" s="125"/>
-      <c r="AG19" s="126"/>
-      <c r="AH19" s="126"/>
-      <c r="AI19" s="127"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="129"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="125"/>
+      <c r="AH19" s="125"/>
+      <c r="AI19" s="126"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="20"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="129"/>
-      <c r="AB20" s="129"/>
-      <c r="AC20" s="129"/>
-      <c r="AD20" s="129"/>
-      <c r="AE20" s="130"/>
-      <c r="AF20" s="125"/>
-      <c r="AG20" s="126"/>
-      <c r="AH20" s="126"/>
-      <c r="AI20" s="127"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="128"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="129"/>
+      <c r="AF20" s="124"/>
+      <c r="AG20" s="125"/>
+      <c r="AH20" s="125"/>
+      <c r="AI20" s="126"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="20"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
-      <c r="U21" s="129"/>
-      <c r="V21" s="129"/>
-      <c r="W21" s="129"/>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="129"/>
-      <c r="Z21" s="129"/>
-      <c r="AA21" s="129"/>
-      <c r="AB21" s="129"/>
-      <c r="AC21" s="129"/>
-      <c r="AD21" s="129"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="125"/>
-      <c r="AG21" s="126"/>
-      <c r="AH21" s="126"/>
-      <c r="AI21" s="127"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="129"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="125"/>
+      <c r="AH21" s="125"/>
+      <c r="AI21" s="126"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="20"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="129"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="129"/>
-      <c r="W22" s="129"/>
-      <c r="X22" s="129"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="129"/>
-      <c r="AB22" s="129"/>
-      <c r="AC22" s="129"/>
-      <c r="AD22" s="129"/>
-      <c r="AE22" s="130"/>
-      <c r="AF22" s="125"/>
-      <c r="AG22" s="126"/>
-      <c r="AH22" s="126"/>
-      <c r="AI22" s="127"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="129"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="125"/>
+      <c r="AH22" s="125"/>
+      <c r="AI22" s="126"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="20"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="129"/>
-      <c r="X23" s="129"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="129"/>
-      <c r="AB23" s="129"/>
-      <c r="AC23" s="129"/>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="130"/>
-      <c r="AF23" s="125"/>
-      <c r="AG23" s="126"/>
-      <c r="AH23" s="126"/>
-      <c r="AI23" s="127"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="129"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="125"/>
+      <c r="AH23" s="125"/>
+      <c r="AI23" s="126"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="20"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="129"/>
-      <c r="AC24" s="129"/>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="130"/>
-      <c r="AF24" s="125"/>
-      <c r="AG24" s="126"/>
-      <c r="AH24" s="126"/>
-      <c r="AI24" s="127"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="129"/>
+      <c r="AF24" s="124"/>
+      <c r="AG24" s="125"/>
+      <c r="AH24" s="125"/>
+      <c r="AI24" s="126"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="20"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="129"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="129"/>
-      <c r="Y25" s="129"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="129"/>
-      <c r="AB25" s="129"/>
-      <c r="AC25" s="129"/>
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="130"/>
-      <c r="AF25" s="125"/>
-      <c r="AG25" s="126"/>
-      <c r="AH25" s="126"/>
-      <c r="AI25" s="127"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="129"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="125"/>
+      <c r="AH25" s="125"/>
+      <c r="AI25" s="126"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="20"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="129"/>
-      <c r="X26" s="129"/>
-      <c r="Y26" s="129"/>
-      <c r="Z26" s="129"/>
-      <c r="AA26" s="129"/>
-      <c r="AB26" s="129"/>
-      <c r="AC26" s="129"/>
-      <c r="AD26" s="129"/>
-      <c r="AE26" s="130"/>
-      <c r="AF26" s="125"/>
-      <c r="AG26" s="126"/>
-      <c r="AH26" s="126"/>
-      <c r="AI26" s="127"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="129"/>
+      <c r="AF26" s="124"/>
+      <c r="AG26" s="125"/>
+      <c r="AH26" s="125"/>
+      <c r="AI26" s="126"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="20"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="129"/>
-      <c r="U27" s="129"/>
-      <c r="V27" s="129"/>
-      <c r="W27" s="129"/>
-      <c r="X27" s="129"/>
-      <c r="Y27" s="129"/>
-      <c r="Z27" s="129"/>
-      <c r="AA27" s="129"/>
-      <c r="AB27" s="129"/>
-      <c r="AC27" s="129"/>
-      <c r="AD27" s="129"/>
-      <c r="AE27" s="130"/>
-      <c r="AF27" s="125"/>
-      <c r="AG27" s="126"/>
-      <c r="AH27" s="126"/>
-      <c r="AI27" s="127"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="129"/>
+      <c r="AF27" s="124"/>
+      <c r="AG27" s="125"/>
+      <c r="AH27" s="125"/>
+      <c r="AI27" s="126"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="20"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="129"/>
-      <c r="T28" s="129"/>
-      <c r="U28" s="129"/>
-      <c r="V28" s="129"/>
-      <c r="W28" s="129"/>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="129"/>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="129"/>
-      <c r="AB28" s="129"/>
-      <c r="AC28" s="129"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="130"/>
-      <c r="AF28" s="125"/>
-      <c r="AG28" s="126"/>
-      <c r="AH28" s="126"/>
-      <c r="AI28" s="127"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="129"/>
+      <c r="AF28" s="124"/>
+      <c r="AG28" s="125"/>
+      <c r="AH28" s="125"/>
+      <c r="AI28" s="126"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="20"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="129"/>
-      <c r="T29" s="129"/>
-      <c r="U29" s="129"/>
-      <c r="V29" s="129"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129"/>
-      <c r="Y29" s="129"/>
-      <c r="Z29" s="129"/>
-      <c r="AA29" s="129"/>
-      <c r="AB29" s="129"/>
-      <c r="AC29" s="129"/>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="130"/>
-      <c r="AF29" s="125"/>
-      <c r="AG29" s="126"/>
-      <c r="AH29" s="126"/>
-      <c r="AI29" s="127"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="129"/>
+      <c r="AF29" s="124"/>
+      <c r="AG29" s="125"/>
+      <c r="AH29" s="125"/>
+      <c r="AI29" s="126"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="20"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="129"/>
-      <c r="Y30" s="129"/>
-      <c r="Z30" s="129"/>
-      <c r="AA30" s="129"/>
-      <c r="AB30" s="129"/>
-      <c r="AC30" s="129"/>
-      <c r="AD30" s="129"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="125"/>
-      <c r="AG30" s="126"/>
-      <c r="AH30" s="126"/>
-      <c r="AI30" s="127"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="129"/>
+      <c r="AF30" s="124"/>
+      <c r="AG30" s="125"/>
+      <c r="AH30" s="125"/>
+      <c r="AI30" s="126"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="129"/>
-      <c r="T31" s="129"/>
-      <c r="U31" s="129"/>
-      <c r="V31" s="129"/>
-      <c r="W31" s="129"/>
-      <c r="X31" s="129"/>
-      <c r="Y31" s="129"/>
-      <c r="Z31" s="129"/>
-      <c r="AA31" s="129"/>
-      <c r="AB31" s="129"/>
-      <c r="AC31" s="129"/>
-      <c r="AD31" s="129"/>
-      <c r="AE31" s="130"/>
-      <c r="AF31" s="125"/>
-      <c r="AG31" s="126"/>
-      <c r="AH31" s="126"/>
-      <c r="AI31" s="127"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="129"/>
+      <c r="AF31" s="124"/>
+      <c r="AG31" s="125"/>
+      <c r="AH31" s="125"/>
+      <c r="AI31" s="126"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="20"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="126"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="129"/>
-      <c r="T32" s="129"/>
-      <c r="U32" s="129"/>
-      <c r="V32" s="129"/>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="129"/>
-      <c r="AB32" s="129"/>
-      <c r="AC32" s="129"/>
-      <c r="AD32" s="129"/>
-      <c r="AE32" s="130"/>
-      <c r="AF32" s="125"/>
-      <c r="AG32" s="126"/>
-      <c r="AH32" s="126"/>
-      <c r="AI32" s="127"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="128"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="129"/>
+      <c r="AF32" s="124"/>
+      <c r="AG32" s="125"/>
+      <c r="AH32" s="125"/>
+      <c r="AI32" s="126"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="129"/>
-      <c r="T33" s="129"/>
-      <c r="U33" s="129"/>
-      <c r="V33" s="129"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="129"/>
-      <c r="Y33" s="129"/>
-      <c r="Z33" s="129"/>
-      <c r="AA33" s="129"/>
-      <c r="AB33" s="129"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="129"/>
-      <c r="AE33" s="130"/>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="126"/>
-      <c r="AH33" s="126"/>
-      <c r="AI33" s="127"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="125"/>
+      <c r="N33" s="125"/>
+      <c r="O33" s="125"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="129"/>
+      <c r="AF33" s="124"/>
+      <c r="AG33" s="125"/>
+      <c r="AH33" s="125"/>
+      <c r="AI33" s="126"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="22"/>
@@ -6350,10 +6672,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
@@ -6370,34 +6692,34 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>118</v>
-      </c>
       <c r="I4" s="23" t="s">
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>1</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="11.5" thickBot="1">
@@ -6419,839 +6741,847 @@
     <row r="7" spans="1:14" ht="11.5" thickTop="1"/>
     <row r="8" spans="1:14" s="29" customFormat="1" ht="10" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="E8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="G8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="H8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="28" t="s">
+      <c r="L8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="M8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="N8" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="29" customFormat="1" ht="128.5" customHeight="1">
+      <c r="A9" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="1:14" s="29" customFormat="1" ht="167" customHeight="1">
+      <c r="A10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="29" customFormat="1" ht="128.5" customHeight="1">
-      <c r="A9" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="51" t="s">
+      <c r="H10" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" s="29" customFormat="1" ht="167" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="J11" s="48"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+    </row>
+    <row r="12" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A12" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-    </row>
-    <row r="10" spans="1:14" s="29" customFormat="1" ht="80" customHeight="1">
-      <c r="A10" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42" t="s">
+      <c r="G12" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+    </row>
+    <row r="13" spans="1:14" s="29" customFormat="1" ht="99" customHeight="1">
+      <c r="A13" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-    </row>
-    <row r="11" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A11" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-    </row>
-    <row r="12" spans="1:14" s="29" customFormat="1" ht="99" customHeight="1">
-      <c r="A12" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" spans="1:14" s="29" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A13" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-    </row>
-    <row r="14" spans="1:14" s="29" customFormat="1" ht="101.5" customHeight="1">
-      <c r="A14" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="E13" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+    </row>
+    <row r="14" spans="1:14" s="29" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A14" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
-      <c r="H14" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-    </row>
-    <row r="15" spans="1:14" s="29" customFormat="1" ht="112.5" customHeight="1">
-      <c r="A15" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="H14" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="48"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+    </row>
+    <row r="15" spans="1:14" s="29" customFormat="1" ht="101.5" customHeight="1">
+      <c r="A15" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-    </row>
-    <row r="16" spans="1:14" s="29" customFormat="1" ht="90" customHeight="1">
-      <c r="A16" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="H15" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="48"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+    </row>
+    <row r="16" spans="1:14" s="29" customFormat="1" ht="112.5" customHeight="1">
+      <c r="A16" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-    </row>
-    <row r="17" spans="1:14" s="29" customFormat="1" ht="95" customHeight="1">
-      <c r="A17" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="H16" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" s="48"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:14" s="29" customFormat="1" ht="90" customHeight="1">
+      <c r="A17" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="I17" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-    </row>
-    <row r="18" spans="1:14" s="29" customFormat="1" ht="111.5" customHeight="1">
-      <c r="A18" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+    </row>
+    <row r="18" spans="1:14" s="29" customFormat="1" ht="95" customHeight="1">
+      <c r="A18" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-    </row>
-    <row r="19" spans="1:14" s="29" customFormat="1" ht="92.5" customHeight="1">
-      <c r="A19" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="H18" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" s="48"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+    </row>
+    <row r="19" spans="1:14" s="29" customFormat="1" ht="111.5" customHeight="1">
+      <c r="A19" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-    </row>
-    <row r="20" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A20" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-    </row>
-    <row r="21" spans="1:14" s="29" customFormat="1" ht="97" customHeight="1">
-      <c r="A21" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-    </row>
-    <row r="22" spans="1:14" s="29" customFormat="1" ht="96" customHeight="1">
-      <c r="A22" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-    </row>
-    <row r="23" spans="1:14" s="29" customFormat="1" ht="135.5" customHeight="1">
-      <c r="A23" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
+      <c r="H19" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" s="48"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+    </row>
+    <row r="20" spans="1:14" s="29" customFormat="1" ht="111.5" customHeight="1">
+      <c r="A20" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="48"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+    </row>
+    <row r="21" spans="1:14" s="29" customFormat="1" ht="92.5" customHeight="1">
+      <c r="A21" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+    </row>
+    <row r="22" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A22" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+    </row>
+    <row r="23" spans="1:14" s="29" customFormat="1" ht="97" customHeight="1">
+      <c r="A23" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="J23" s="48"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
     </row>
     <row r="24" spans="1:14" s="29" customFormat="1" ht="96" customHeight="1">
-      <c r="A24" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
+      <c r="A24" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
-      <c r="H24" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-    </row>
-    <row r="25" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A25" s="72" t="s">
+      <c r="H24" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="J24" s="48"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+    </row>
+    <row r="25" spans="1:14" s="29" customFormat="1" ht="135.5" customHeight="1">
+      <c r="A25" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="J25" s="48"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+    </row>
+    <row r="26" spans="1:14" s="29" customFormat="1" ht="102.5" customHeight="1">
+      <c r="A26" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="J26" s="48"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+    </row>
+    <row r="27" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A27" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+    </row>
+    <row r="28" spans="1:14" s="29" customFormat="1" ht="116" customHeight="1">
+      <c r="A28" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" s="48"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+    </row>
+    <row r="29" spans="1:14" s="29" customFormat="1" ht="171" customHeight="1">
+      <c r="A29" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="79"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" s="48"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+    </row>
+    <row r="30" spans="1:14" s="29" customFormat="1" ht="163" customHeight="1">
+      <c r="A30" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="79"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="J30" s="48"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+    </row>
+    <row r="31" spans="1:14" s="29" customFormat="1" ht="68" customHeight="1">
+      <c r="A31" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-    </row>
-    <row r="26" spans="1:14" s="29" customFormat="1" ht="107" customHeight="1">
-      <c r="A26" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="48" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="109"/>
+      <c r="F31" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" s="48"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+    </row>
+    <row r="32" spans="1:14" s="29" customFormat="1" ht="84.5" customHeight="1">
+      <c r="A32" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="61"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" s="48"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+    </row>
+    <row r="33" spans="1:14" s="29" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A33" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="103"/>
+      <c r="F33" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="I33" s="105" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" s="106"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+    </row>
+    <row r="34" spans="1:14" s="29" customFormat="1" ht="152.5" customHeight="1">
+      <c r="A34" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="45"/>
+      <c r="F34" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="I34" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" s="48"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+    </row>
+    <row r="35" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A35" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="99"/>
+      <c r="F35" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" s="48"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+    </row>
+    <row r="36" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A36" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="I26" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-    </row>
-    <row r="27" spans="1:14" s="29" customFormat="1" ht="135" customHeight="1">
-      <c r="A27" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="48" t="s">
+      <c r="J36" s="48"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+    </row>
+    <row r="37" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A37" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="I27" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-    </row>
-    <row r="28" spans="1:14" s="29" customFormat="1" ht="68" customHeight="1">
-      <c r="A28" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="111"/>
-      <c r="F28" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-    </row>
-    <row r="29" spans="1:14" s="29" customFormat="1" ht="68" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="J29" s="49"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-    </row>
-    <row r="30" spans="1:14" s="29" customFormat="1" ht="48" customHeight="1">
-      <c r="A30" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="105"/>
-      <c r="F30" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="107" t="s">
-        <v>262</v>
-      </c>
-      <c r="I30" s="107" t="s">
-        <v>263</v>
-      </c>
-      <c r="J30" s="108"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-    </row>
-    <row r="31" spans="1:14" s="29" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A31" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="I31" s="48" t="s">
+      <c r="I37" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37" s="48"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+    </row>
+    <row r="38" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A38" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+    </row>
+    <row r="39" spans="1:14" s="29" customFormat="1" ht="136.5" customHeight="1">
+      <c r="A39" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="115" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="I39" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-    </row>
-    <row r="32" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A32" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="101"/>
-      <c r="F32" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-    </row>
-    <row r="33" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-    </row>
-    <row r="34" spans="1:14" s="29" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="J34" s="49"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-    </row>
-    <row r="35" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A35" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="69"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-    </row>
-    <row r="36" spans="1:14" s="29" customFormat="1" ht="136.5" customHeight="1">
-      <c r="A36" s="115"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="F36" s="117" t="s">
-        <v>226</v>
-      </c>
-      <c r="G36" s="117" t="s">
-        <v>227</v>
-      </c>
-      <c r="H36" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="I36" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="J36" s="108"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-    </row>
-    <row r="37" spans="1:14" s="29" customFormat="1" ht="60" customHeight="1">
-      <c r="A37" s="115"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="I37" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="J37" s="108"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
-    </row>
-    <row r="38" spans="1:14" s="29" customFormat="1" ht="147" customHeight="1">
-      <c r="A38" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-    </row>
-    <row r="39" spans="1:14" s="29" customFormat="1" ht="137.5" customHeight="1">
-      <c r="A39" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-    </row>
-    <row r="40" spans="1:14" s="29" customFormat="1" ht="143.5" customHeight="1">
-      <c r="A40" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="I40" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J40" s="49"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-    </row>
-    <row r="41" spans="1:14" s="29" customFormat="1" ht="166" customHeight="1">
+      <c r="J39" s="106"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+    </row>
+    <row r="40" spans="1:14" s="29" customFormat="1" ht="76" customHeight="1">
+      <c r="A40" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="J40" s="106"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+    </row>
+    <row r="41" spans="1:14" s="29" customFormat="1" ht="147" customHeight="1">
       <c r="A41" s="39" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
@@ -7259,21 +7589,21 @@
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
-      <c r="H41" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="I41" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J41" s="49"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-    </row>
-    <row r="42" spans="1:14" s="29" customFormat="1" ht="146" customHeight="1">
+      <c r="H41" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" s="48"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+    </row>
+    <row r="42" spans="1:14" s="29" customFormat="1" ht="137.5" customHeight="1">
       <c r="A42" s="39" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -7281,21 +7611,21 @@
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
-      <c r="H42" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="I42" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J42" s="49"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-    </row>
-    <row r="43" spans="1:14" s="29" customFormat="1" ht="137" customHeight="1">
+      <c r="H42" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="48"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+    </row>
+    <row r="43" spans="1:14" s="29" customFormat="1" ht="143.5" customHeight="1">
       <c r="A43" s="39" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -7303,345 +7633,347 @@
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
-      <c r="H43" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I43" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J43" s="49"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-    </row>
-    <row r="44" spans="1:14" s="29" customFormat="1" ht="144.5" customHeight="1">
+      <c r="H43" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="I43" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J43" s="48"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+    </row>
+    <row r="44" spans="1:14" s="29" customFormat="1" ht="166" customHeight="1">
       <c r="A44" s="39" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="61"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
-      <c r="H44" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="I44" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="J44" s="49"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-    </row>
-    <row r="45" spans="1:14" s="29" customFormat="1" ht="85" customHeight="1">
-      <c r="A45" s="39"/>
+      <c r="H44" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" s="48"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+    </row>
+    <row r="45" spans="1:14" s="29" customFormat="1" ht="146" customHeight="1">
+      <c r="A45" s="39" t="s">
+        <v>187</v>
+      </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="61"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
-      <c r="H45" s="48" t="s">
+      <c r="H45" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="I45" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J45" s="48"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+    </row>
+    <row r="46" spans="1:14" s="29" customFormat="1" ht="110" customHeight="1">
+      <c r="A46" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="I45" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="J45" s="49"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-    </row>
-    <row r="46" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A46" s="76" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="I46" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" s="48"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+    </row>
+    <row r="47" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A47" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+    </row>
+    <row r="48" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A48" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="67"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+    </row>
+    <row r="49" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A49" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" s="69"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-    </row>
-    <row r="47" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A47" s="76" t="s">
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="67"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+    </row>
+    <row r="50" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A50" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="I50" s="67"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+    </row>
+    <row r="51" spans="1:14" ht="98" customHeight="1">
+      <c r="A51" s="84" t="s">
         <v>82</v>
-      </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="I47" s="69"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-    </row>
-    <row r="48" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A48" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="I48" s="69"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-    </row>
-    <row r="49" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A49" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="I49" s="69"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-    </row>
-    <row r="50" spans="1:14" ht="98" customHeight="1">
-      <c r="A50" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="I50" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="J50" s="49"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-    </row>
-    <row r="51" spans="1:14" ht="94.5" customHeight="1">
-      <c r="A51" s="85" t="s">
-        <v>189</v>
       </c>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="I51" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="J51" s="49"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-    </row>
-    <row r="52" spans="1:14" ht="103.5" customHeight="1">
-      <c r="A52" s="85" t="s">
-        <v>85</v>
+      <c r="D51" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="J51" s="48"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+    </row>
+    <row r="52" spans="1:14" ht="94.5" customHeight="1">
+      <c r="A52" s="83" t="s">
+        <v>182</v>
       </c>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="I52" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="J52" s="49"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-    </row>
-    <row r="53" spans="1:14" ht="102" customHeight="1">
-      <c r="A53" s="39" t="s">
-        <v>190</v>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="I52" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="J52" s="48"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+    </row>
+    <row r="53" spans="1:14" ht="103.5" customHeight="1">
+      <c r="A53" s="83" t="s">
+        <v>83</v>
       </c>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="I53" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="J53" s="49"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-    </row>
-    <row r="54" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A54" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-    </row>
-    <row r="55" spans="1:14" ht="78" customHeight="1">
-      <c r="A55" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="45" t="s">
+      <c r="E53" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="J53" s="48"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+    </row>
+    <row r="54" spans="1:14" ht="102" customHeight="1">
+      <c r="A54" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="J54" s="48"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+    </row>
+    <row r="55" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A55" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="J55" s="49"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-    </row>
-    <row r="56" spans="1:14" ht="52.5" customHeight="1">
+      <c r="F55" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+    </row>
+    <row r="56" spans="1:14" ht="78" customHeight="1">
       <c r="A56" s="39" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="I56" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="J56" s="49"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-    </row>
-    <row r="57" spans="1:14" ht="87" customHeight="1">
+      <c r="D56" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="J56" s="48"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+    </row>
+    <row r="57" spans="1:14" ht="97" customHeight="1">
       <c r="A57" s="39" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -7649,21 +7981,21 @@
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
-      <c r="H57" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="I57" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="J57" s="49"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-    </row>
-    <row r="58" spans="1:14" ht="104" customHeight="1">
+      <c r="H57" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="I57" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="J57" s="48"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+    </row>
+    <row r="58" spans="1:14" ht="87" customHeight="1">
       <c r="A58" s="39" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -7671,21 +8003,21 @@
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
-      <c r="H58" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="I58" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="J58" s="49"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-    </row>
-    <row r="59" spans="1:14" ht="90.5" customHeight="1">
+      <c r="H58" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="I58" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="J58" s="48"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+    </row>
+    <row r="59" spans="1:14" ht="104" customHeight="1">
       <c r="A59" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -7693,21 +8025,21 @@
       <c r="E59" s="34"/>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
-      <c r="H59" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="I59" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="J59" s="49"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-    </row>
-    <row r="60" spans="1:14" ht="96" customHeight="1">
+      <c r="H59" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="J59" s="48"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+    </row>
+    <row r="60" spans="1:14" ht="90.5" customHeight="1">
       <c r="A60" s="39" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -7715,21 +8047,21 @@
       <c r="E60" s="34"/>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
-      <c r="H60" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="I60" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="J60" s="49"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-    </row>
-    <row r="61" spans="1:14" ht="110" customHeight="1">
+      <c r="H60" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="I60" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="J60" s="48"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+    </row>
+    <row r="61" spans="1:14" ht="96" customHeight="1">
       <c r="A61" s="39" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -7737,111 +8069,115 @@
       <c r="E61" s="34"/>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
-      <c r="H61" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="I61" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="J61" s="49"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-    </row>
-    <row r="62" spans="1:14" ht="46.5" customHeight="1">
-      <c r="A62" s="39"/>
+      <c r="H61" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="J61" s="48"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+    </row>
+    <row r="62" spans="1:14" ht="110" customHeight="1">
+      <c r="A62" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
-      <c r="H62" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="I62" s="48"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-    </row>
-    <row r="63" spans="1:14" ht="93.5" customHeight="1">
+      <c r="H62" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="I62" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="J62" s="48"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+    </row>
+    <row r="63" spans="1:14" ht="106.5" customHeight="1">
       <c r="A63" s="39" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
-      <c r="E63" s="61"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
-      <c r="H63" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="I63" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="J63" s="49"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-    </row>
-    <row r="64" spans="1:14" ht="78" customHeight="1">
+      <c r="H63" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="I63" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="J63" s="48"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+    </row>
+    <row r="64" spans="1:14" ht="93.5" customHeight="1">
       <c r="A64" s="39" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
-      <c r="E64" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="I64" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="J64" s="49"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-    </row>
-    <row r="65" spans="1:14" ht="67.5" customHeight="1">
+      <c r="E64" s="59"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="I64" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="J64" s="48"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+    </row>
+    <row r="65" spans="1:14" ht="78" customHeight="1">
       <c r="A65" s="39" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="I65" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="J65" s="49"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-    </row>
-    <row r="66" spans="1:14" ht="77.5" customHeight="1">
+      <c r="E65" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="I65" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="J65" s="48"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+    </row>
+    <row r="66" spans="1:14" ht="101.5" customHeight="1">
       <c r="A66" s="39" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -7849,21 +8185,21 @@
       <c r="E66" s="34"/>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
-      <c r="H66" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="I66" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="J66" s="49"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-    </row>
-    <row r="67" spans="1:14" ht="103" customHeight="1">
+      <c r="H66" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="I66" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="J66" s="48"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+    </row>
+    <row r="67" spans="1:14" ht="96" customHeight="1">
       <c r="A67" s="39" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -7871,21 +8207,21 @@
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
-      <c r="H67" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="I67" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="J67" s="49"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-    </row>
-    <row r="68" spans="1:14" ht="100" customHeight="1">
+      <c r="H67" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="I67" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="J67" s="48"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+    </row>
+    <row r="68" spans="1:14" ht="103" customHeight="1">
       <c r="A68" s="39" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -7893,21 +8229,21 @@
       <c r="E68" s="34"/>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
-      <c r="H68" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="I68" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="J68" s="49"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-    </row>
-    <row r="69" spans="1:14" ht="98.5" customHeight="1">
+      <c r="H68" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="I68" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="J68" s="48"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+    </row>
+    <row r="69" spans="1:14" ht="100" customHeight="1">
       <c r="A69" s="39" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -7915,21 +8251,21 @@
       <c r="E69" s="34"/>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
-      <c r="H69" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="I69" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="J69" s="49"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-    </row>
-    <row r="70" spans="1:14" ht="100" customHeight="1">
+      <c r="H69" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="I69" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="J69" s="48"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+    </row>
+    <row r="70" spans="1:14" ht="98.5" customHeight="1">
       <c r="A70" s="39" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -7937,39 +8273,43 @@
       <c r="E70" s="34"/>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
-      <c r="H70" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="I70" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="J70" s="49"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-    </row>
-    <row r="71" spans="1:14" ht="48" customHeight="1">
-      <c r="A71" s="39"/>
+      <c r="H70" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="J70" s="48"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+    </row>
+    <row r="71" spans="1:14" ht="100" customHeight="1">
+      <c r="A71" s="39" t="s">
+        <v>156</v>
+      </c>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34"/>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
-      <c r="H71" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="I71" s="48"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-    </row>
-    <row r="72" spans="1:14" ht="100.5" customHeight="1">
+      <c r="H71" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="I71" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="J71" s="48"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+    </row>
+    <row r="72" spans="1:14" ht="114" customHeight="1">
       <c r="A72" s="39" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -7977,383 +8317,561 @@
       <c r="E72" s="34"/>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
-      <c r="H72" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="I72" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="J72" s="49"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-    </row>
-    <row r="73" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A73" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F73" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I73" s="69"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="70"/>
-    </row>
-    <row r="74" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A74" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="181" t="s">
-        <v>50</v>
-      </c>
-      <c r="E74" s="182"/>
-      <c r="F74" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H74" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I74" s="69"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="70"/>
-      <c r="M74" s="70"/>
-      <c r="N74" s="70"/>
-    </row>
-    <row r="75" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
+      <c r="H72" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="I72" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="J72" s="48"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="48"/>
+    </row>
+    <row r="73" spans="1:14" ht="100.5" customHeight="1">
+      <c r="A73" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="I73" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J73" s="48"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+    </row>
+    <row r="74" spans="1:14" ht="100.5" customHeight="1">
+      <c r="A74" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="I74" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="J74" s="48"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="48"/>
+    </row>
+    <row r="75" spans="1:14" ht="100.5" customHeight="1">
       <c r="A75" s="39" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
-      <c r="D75" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="H75" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="I75" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="J75" s="49"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-    </row>
-    <row r="76" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="I75" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="J75" s="48"/>
+      <c r="K75" s="53"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="48"/>
+    </row>
+    <row r="76" spans="1:14" ht="100.5" customHeight="1">
       <c r="A76" s="39" t="s">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
-      <c r="E76" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="H76" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="I76" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="J76" s="49"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-    </row>
-    <row r="77" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A77" s="75" t="s">
-        <v>149</v>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="I76" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="J76" s="48"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="48"/>
+    </row>
+    <row r="77" spans="1:14" ht="100.5" customHeight="1">
+      <c r="A77" s="39" t="s">
+        <v>256</v>
       </c>
       <c r="B77" s="34"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="63"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
-      <c r="H77" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I77" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="J77" s="49"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="49"/>
-    </row>
-    <row r="78" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A78" s="90" t="s">
+      <c r="H77" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="I77" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="J77" s="48"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="48"/>
+    </row>
+    <row r="78" spans="1:14" ht="100.5" customHeight="1">
+      <c r="A78" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I78" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="J78" s="48"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="48"/>
+      <c r="M78" s="48"/>
+      <c r="N78" s="48"/>
+    </row>
+    <row r="79" spans="1:14" ht="100.5" customHeight="1">
+      <c r="A79" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="I79" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="J79" s="48"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="48"/>
+      <c r="N79" s="48"/>
+    </row>
+    <row r="80" spans="1:14" ht="100.5" customHeight="1">
+      <c r="A80" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="I80" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="J80" s="48"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="48"/>
+    </row>
+    <row r="81" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A81" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="75"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I81" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="J81" s="68"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="68"/>
+      <c r="M81" s="68"/>
+      <c r="N81" s="68"/>
+    </row>
+    <row r="82" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A82" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="180" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="181"/>
+      <c r="F82" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I82" s="67"/>
+      <c r="J82" s="68"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="68"/>
+      <c r="M82" s="68"/>
+      <c r="N82" s="68"/>
+    </row>
+    <row r="83" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A83" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H83" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I83" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J83" s="48"/>
+      <c r="K83" s="53"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="48"/>
+    </row>
+    <row r="84" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A84" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H84" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="I84" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="J84" s="48"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="48"/>
+    </row>
+    <row r="85" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A85" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="34"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="I85" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="J85" s="48"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="48"/>
+    </row>
+    <row r="86" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A86" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="182" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="183"/>
+      <c r="E86" s="184"/>
+      <c r="F86" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="183" t="s">
-        <v>53</v>
-      </c>
-      <c r="D78" s="184"/>
-      <c r="E78" s="185"/>
-      <c r="F78" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="H78" s="45" t="s">
+      <c r="H86" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="I86" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="J86" s="90"/>
+      <c r="K86" s="92"/>
+      <c r="L86" s="90"/>
+      <c r="M86" s="90"/>
+      <c r="N86" s="90"/>
+    </row>
+    <row r="87" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A87" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" s="34"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="I87" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J87" s="91"/>
+      <c r="K87" s="93"/>
+      <c r="L87" s="91"/>
+      <c r="M87" s="91"/>
+      <c r="N87" s="91"/>
+    </row>
+    <row r="88" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A88" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="34"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="I88" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J88" s="91"/>
+      <c r="K88" s="93"/>
+      <c r="L88" s="91"/>
+      <c r="M88" s="91"/>
+      <c r="N88" s="91"/>
+    </row>
+    <row r="89" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A89" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="34"/>
+      <c r="C89" s="97"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="I89" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J89" s="91"/>
+      <c r="K89" s="93"/>
+      <c r="L89" s="91"/>
+      <c r="M89" s="91"/>
+      <c r="N89" s="91"/>
+    </row>
+    <row r="90" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A90" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="34"/>
+      <c r="C90" s="97"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="I90" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J90" s="91"/>
+      <c r="K90" s="93"/>
+      <c r="L90" s="91"/>
+      <c r="M90" s="91"/>
+      <c r="N90" s="91"/>
+    </row>
+    <row r="91" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A91" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="34"/>
+      <c r="C91" s="97"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="I91" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J91" s="91"/>
+      <c r="K91" s="93"/>
+      <c r="L91" s="91"/>
+      <c r="M91" s="91"/>
+      <c r="N91" s="91"/>
+    </row>
+    <row r="92" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A92" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="34"/>
+      <c r="C92" s="97"/>
+      <c r="D92" s="87"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="I92" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J92" s="91"/>
+      <c r="K92" s="93"/>
+      <c r="L92" s="91"/>
+      <c r="M92" s="91"/>
+      <c r="N92" s="91"/>
+    </row>
+    <row r="93" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A93" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" s="34"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="I78" s="45" t="s">
+      <c r="I93" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J93" s="91"/>
+      <c r="K93" s="93"/>
+      <c r="L93" s="91"/>
+      <c r="M93" s="91"/>
+      <c r="N93" s="91"/>
+    </row>
+    <row r="94" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A94" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" s="34"/>
+      <c r="C94" s="97"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="J78" s="92"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
-      <c r="N78" s="92"/>
-    </row>
-    <row r="79" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A79" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="89"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="33" t="s">
+      <c r="I94" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J94" s="91"/>
+      <c r="K94" s="93"/>
+      <c r="L94" s="91"/>
+      <c r="M94" s="91"/>
+      <c r="N94" s="91"/>
+    </row>
+    <row r="95" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A95" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="38"/>
+      <c r="C95" s="94"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="I79" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="J79" s="93"/>
-      <c r="K79" s="95"/>
-      <c r="L79" s="93"/>
-      <c r="M79" s="93"/>
-      <c r="N79" s="93"/>
-    </row>
-    <row r="80" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A80" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="I80" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="J80" s="93"/>
-      <c r="K80" s="95"/>
-      <c r="L80" s="93"/>
-      <c r="M80" s="93"/>
-      <c r="N80" s="93"/>
-    </row>
-    <row r="81" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A81" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="89"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="I81" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="J81" s="93"/>
-      <c r="K81" s="95"/>
-      <c r="L81" s="93"/>
-      <c r="M81" s="93"/>
-      <c r="N81" s="93"/>
-    </row>
-    <row r="82" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A82" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="B82" s="34"/>
-      <c r="C82" s="99"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="I82" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="J82" s="93"/>
-      <c r="K82" s="95"/>
-      <c r="L82" s="93"/>
-      <c r="M82" s="93"/>
-      <c r="N82" s="93"/>
-    </row>
-    <row r="83" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A83" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83" s="34"/>
-      <c r="C83" s="99"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="I83" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="J83" s="93"/>
-      <c r="K83" s="95"/>
-      <c r="L83" s="93"/>
-      <c r="M83" s="93"/>
-      <c r="N83" s="93"/>
-    </row>
-    <row r="84" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A84" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="99"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="I84" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="J84" s="93"/>
-      <c r="K84" s="95"/>
-      <c r="L84" s="93"/>
-      <c r="M84" s="93"/>
-      <c r="N84" s="93"/>
-    </row>
-    <row r="85" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A85" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="I85" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="J85" s="93"/>
-      <c r="K85" s="95"/>
-      <c r="L85" s="93"/>
-      <c r="M85" s="93"/>
-      <c r="N85" s="93"/>
-    </row>
-    <row r="86" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A86" s="91" t="s">
-        <v>187</v>
-      </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="I86" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="J86" s="93"/>
-      <c r="K86" s="95"/>
-      <c r="L86" s="93"/>
-      <c r="M86" s="93"/>
-      <c r="N86" s="93"/>
-    </row>
-    <row r="87" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A87" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="B87" s="38"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="I87" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="J87" s="93"/>
-      <c r="K87" s="95"/>
-      <c r="L87" s="93"/>
-      <c r="M87" s="93"/>
-      <c r="N87" s="93"/>
+      <c r="I95" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J95" s="91"/>
+      <c r="K95" s="93"/>
+      <c r="L95" s="91"/>
+      <c r="M95" s="91"/>
+      <c r="N95" s="91"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:N32" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A8:N35" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C86:E86"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/単体テスト仕様書_取引単体(画面)_W11AA01_ユーザ登録_A1.xlsx
+++ b/単体テスト仕様書_取引単体(画面)_W11AA01_ユーザ登録_A1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D24522E-311E-45D5-9F58-012ACB76CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7D0F23-B2D2-4A9C-A211-65B3F0BF663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12000" tabRatio="445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2043,13 +2043,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新日：2024/06/18</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>次のように画面遷移する
 ユーザ登録画面→ユーザ登録確認画面→ユーザ登録画面→ユーザ登録確認画面→ユーザ登録完了画面
 ユーザ登録画面が表示される
@@ -2602,6 +2595,13 @@
     </rPh>
     <rPh sb="54" eb="58">
       <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日：2024/06/24</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3635,6 +3635,114 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3671,9 +3779,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3713,112 +3818,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5264,57 +5264,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="153" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="159" t="s">
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="168" t="s">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="150" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="177" t="str">
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="151" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>徳重　順哉</v>
       </c>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="179"/>
-      <c r="AG1" s="144">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="118">
         <f>IF(D8="","",D8)</f>
         <v>45460</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="120"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -5322,53 +5322,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="153" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="150" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="156" t="str">
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="130" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="144" t="str">
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="118" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="120"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -5376,45 +5376,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="178"/>
-      <c r="AF3" s="179"/>
-      <c r="AG3" s="144"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="151"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="120"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -5451,1034 +5451,1190 @@
       <c r="A7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="147" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="147" t="s">
+      <c r="E7" s="123"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="149"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="147" t="s">
+      <c r="H7" s="123"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="147" t="s">
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="149"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="149"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="149"/>
-      <c r="Z7" s="149"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="149"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="148"/>
-      <c r="AF7" s="147" t="s">
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="149"/>
-      <c r="AI7" s="148"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="122"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="131">
+      <c r="B8" s="166">
         <v>1</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133">
+      <c r="C8" s="167"/>
+      <c r="D8" s="168">
         <v>45460</v>
       </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136" t="s">
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="138" t="s">
+      <c r="H8" s="172"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141" t="s">
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="138" t="s">
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="178"/>
+      <c r="AF8" s="173" t="s">
         <v>120</v>
       </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="175"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="20"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="124"/>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="126"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
+      <c r="AC9" s="164"/>
+      <c r="AD9" s="164"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="160"/>
+      <c r="AG9" s="161"/>
+      <c r="AH9" s="161"/>
+      <c r="AI9" s="162"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="20"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="126"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="165"/>
+      <c r="AF10" s="160"/>
+      <c r="AG10" s="161"/>
+      <c r="AH10" s="161"/>
+      <c r="AI10" s="162"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="20"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="126"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="164"/>
+      <c r="AB11" s="164"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="160"/>
+      <c r="AG11" s="161"/>
+      <c r="AH11" s="161"/>
+      <c r="AI11" s="162"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="20"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="125"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="126"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="164"/>
+      <c r="AB12" s="164"/>
+      <c r="AC12" s="164"/>
+      <c r="AD12" s="164"/>
+      <c r="AE12" s="165"/>
+      <c r="AF12" s="160"/>
+      <c r="AG12" s="161"/>
+      <c r="AH12" s="161"/>
+      <c r="AI12" s="162"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="20"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="126"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="164"/>
+      <c r="U13" s="164"/>
+      <c r="V13" s="164"/>
+      <c r="W13" s="164"/>
+      <c r="X13" s="164"/>
+      <c r="Y13" s="164"/>
+      <c r="Z13" s="164"/>
+      <c r="AA13" s="164"/>
+      <c r="AB13" s="164"/>
+      <c r="AC13" s="164"/>
+      <c r="AD13" s="164"/>
+      <c r="AE13" s="165"/>
+      <c r="AF13" s="160"/>
+      <c r="AG13" s="161"/>
+      <c r="AH13" s="161"/>
+      <c r="AI13" s="162"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="20"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="128"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="126"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="164"/>
+      <c r="S14" s="164"/>
+      <c r="T14" s="164"/>
+      <c r="U14" s="164"/>
+      <c r="V14" s="164"/>
+      <c r="W14" s="164"/>
+      <c r="X14" s="164"/>
+      <c r="Y14" s="164"/>
+      <c r="Z14" s="164"/>
+      <c r="AA14" s="164"/>
+      <c r="AB14" s="164"/>
+      <c r="AC14" s="164"/>
+      <c r="AD14" s="164"/>
+      <c r="AE14" s="165"/>
+      <c r="AF14" s="160"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="161"/>
+      <c r="AI14" s="162"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="20"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="126"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="164"/>
+      <c r="X15" s="164"/>
+      <c r="Y15" s="164"/>
+      <c r="Z15" s="164"/>
+      <c r="AA15" s="164"/>
+      <c r="AB15" s="164"/>
+      <c r="AC15" s="164"/>
+      <c r="AD15" s="164"/>
+      <c r="AE15" s="165"/>
+      <c r="AF15" s="160"/>
+      <c r="AG15" s="161"/>
+      <c r="AH15" s="161"/>
+      <c r="AI15" s="162"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="20"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="126"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="164"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="164"/>
+      <c r="U16" s="164"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="164"/>
+      <c r="X16" s="164"/>
+      <c r="Y16" s="164"/>
+      <c r="Z16" s="164"/>
+      <c r="AA16" s="164"/>
+      <c r="AB16" s="164"/>
+      <c r="AC16" s="164"/>
+      <c r="AD16" s="164"/>
+      <c r="AE16" s="165"/>
+      <c r="AF16" s="160"/>
+      <c r="AG16" s="161"/>
+      <c r="AH16" s="161"/>
+      <c r="AI16" s="162"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="126"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="164"/>
+      <c r="U17" s="164"/>
+      <c r="V17" s="164"/>
+      <c r="W17" s="164"/>
+      <c r="X17" s="164"/>
+      <c r="Y17" s="164"/>
+      <c r="Z17" s="164"/>
+      <c r="AA17" s="164"/>
+      <c r="AB17" s="164"/>
+      <c r="AC17" s="164"/>
+      <c r="AD17" s="164"/>
+      <c r="AE17" s="165"/>
+      <c r="AF17" s="160"/>
+      <c r="AG17" s="161"/>
+      <c r="AH17" s="161"/>
+      <c r="AI17" s="162"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="20"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="126"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="164"/>
+      <c r="S18" s="164"/>
+      <c r="T18" s="164"/>
+      <c r="U18" s="164"/>
+      <c r="V18" s="164"/>
+      <c r="W18" s="164"/>
+      <c r="X18" s="164"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="164"/>
+      <c r="AB18" s="164"/>
+      <c r="AC18" s="164"/>
+      <c r="AD18" s="164"/>
+      <c r="AE18" s="165"/>
+      <c r="AF18" s="160"/>
+      <c r="AG18" s="161"/>
+      <c r="AH18" s="161"/>
+      <c r="AI18" s="162"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="124"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="126"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="164"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="164"/>
+      <c r="U19" s="164"/>
+      <c r="V19" s="164"/>
+      <c r="W19" s="164"/>
+      <c r="X19" s="164"/>
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="164"/>
+      <c r="AB19" s="164"/>
+      <c r="AC19" s="164"/>
+      <c r="AD19" s="164"/>
+      <c r="AE19" s="165"/>
+      <c r="AF19" s="160"/>
+      <c r="AG19" s="161"/>
+      <c r="AH19" s="161"/>
+      <c r="AI19" s="162"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="20"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="125"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="126"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="163"/>
+      <c r="R20" s="164"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="164"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="164"/>
+      <c r="W20" s="164"/>
+      <c r="X20" s="164"/>
+      <c r="Y20" s="164"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="164"/>
+      <c r="AB20" s="164"/>
+      <c r="AC20" s="164"/>
+      <c r="AD20" s="164"/>
+      <c r="AE20" s="165"/>
+      <c r="AF20" s="160"/>
+      <c r="AG20" s="161"/>
+      <c r="AH20" s="161"/>
+      <c r="AI20" s="162"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="20"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="126"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="164"/>
+      <c r="S21" s="164"/>
+      <c r="T21" s="164"/>
+      <c r="U21" s="164"/>
+      <c r="V21" s="164"/>
+      <c r="W21" s="164"/>
+      <c r="X21" s="164"/>
+      <c r="Y21" s="164"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="164"/>
+      <c r="AB21" s="164"/>
+      <c r="AC21" s="164"/>
+      <c r="AD21" s="164"/>
+      <c r="AE21" s="165"/>
+      <c r="AF21" s="160"/>
+      <c r="AG21" s="161"/>
+      <c r="AH21" s="161"/>
+      <c r="AI21" s="162"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="20"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="126"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="164"/>
+      <c r="V22" s="164"/>
+      <c r="W22" s="164"/>
+      <c r="X22" s="164"/>
+      <c r="Y22" s="164"/>
+      <c r="Z22" s="164"/>
+      <c r="AA22" s="164"/>
+      <c r="AB22" s="164"/>
+      <c r="AC22" s="164"/>
+      <c r="AD22" s="164"/>
+      <c r="AE22" s="165"/>
+      <c r="AF22" s="160"/>
+      <c r="AG22" s="161"/>
+      <c r="AH22" s="161"/>
+      <c r="AI22" s="162"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="20"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="126"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
+      <c r="X23" s="164"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="164"/>
+      <c r="AC23" s="164"/>
+      <c r="AD23" s="164"/>
+      <c r="AE23" s="165"/>
+      <c r="AF23" s="160"/>
+      <c r="AG23" s="161"/>
+      <c r="AH23" s="161"/>
+      <c r="AI23" s="162"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="20"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="126"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
+      <c r="T24" s="164"/>
+      <c r="U24" s="164"/>
+      <c r="V24" s="164"/>
+      <c r="W24" s="164"/>
+      <c r="X24" s="164"/>
+      <c r="Y24" s="164"/>
+      <c r="Z24" s="164"/>
+      <c r="AA24" s="164"/>
+      <c r="AB24" s="164"/>
+      <c r="AC24" s="164"/>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="165"/>
+      <c r="AF24" s="160"/>
+      <c r="AG24" s="161"/>
+      <c r="AH24" s="161"/>
+      <c r="AI24" s="162"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="20"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="126"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="163"/>
+      <c r="R25" s="164"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="164"/>
+      <c r="U25" s="164"/>
+      <c r="V25" s="164"/>
+      <c r="W25" s="164"/>
+      <c r="X25" s="164"/>
+      <c r="Y25" s="164"/>
+      <c r="Z25" s="164"/>
+      <c r="AA25" s="164"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="165"/>
+      <c r="AF25" s="160"/>
+      <c r="AG25" s="161"/>
+      <c r="AH25" s="161"/>
+      <c r="AI25" s="162"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="20"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="126"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="164"/>
+      <c r="U26" s="164"/>
+      <c r="V26" s="164"/>
+      <c r="W26" s="164"/>
+      <c r="X26" s="164"/>
+      <c r="Y26" s="164"/>
+      <c r="Z26" s="164"/>
+      <c r="AA26" s="164"/>
+      <c r="AB26" s="164"/>
+      <c r="AC26" s="164"/>
+      <c r="AD26" s="164"/>
+      <c r="AE26" s="165"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="161"/>
+      <c r="AH26" s="161"/>
+      <c r="AI26" s="162"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="20"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="125"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="126"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="163"/>
+      <c r="R27" s="164"/>
+      <c r="S27" s="164"/>
+      <c r="T27" s="164"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="164"/>
+      <c r="W27" s="164"/>
+      <c r="X27" s="164"/>
+      <c r="Y27" s="164"/>
+      <c r="Z27" s="164"/>
+      <c r="AA27" s="164"/>
+      <c r="AB27" s="164"/>
+      <c r="AC27" s="164"/>
+      <c r="AD27" s="164"/>
+      <c r="AE27" s="165"/>
+      <c r="AF27" s="160"/>
+      <c r="AG27" s="161"/>
+      <c r="AH27" s="161"/>
+      <c r="AI27" s="162"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="20"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="124"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="126"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="163"/>
+      <c r="R28" s="164"/>
+      <c r="S28" s="164"/>
+      <c r="T28" s="164"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="164"/>
+      <c r="W28" s="164"/>
+      <c r="X28" s="164"/>
+      <c r="Y28" s="164"/>
+      <c r="Z28" s="164"/>
+      <c r="AA28" s="164"/>
+      <c r="AB28" s="164"/>
+      <c r="AC28" s="164"/>
+      <c r="AD28" s="164"/>
+      <c r="AE28" s="165"/>
+      <c r="AF28" s="160"/>
+      <c r="AG28" s="161"/>
+      <c r="AH28" s="161"/>
+      <c r="AI28" s="162"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="20"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="124"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="126"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="162"/>
+      <c r="Q29" s="163"/>
+      <c r="R29" s="164"/>
+      <c r="S29" s="164"/>
+      <c r="T29" s="164"/>
+      <c r="U29" s="164"/>
+      <c r="V29" s="164"/>
+      <c r="W29" s="164"/>
+      <c r="X29" s="164"/>
+      <c r="Y29" s="164"/>
+      <c r="Z29" s="164"/>
+      <c r="AA29" s="164"/>
+      <c r="AB29" s="164"/>
+      <c r="AC29" s="164"/>
+      <c r="AD29" s="164"/>
+      <c r="AE29" s="165"/>
+      <c r="AF29" s="160"/>
+      <c r="AG29" s="161"/>
+      <c r="AH29" s="161"/>
+      <c r="AI29" s="162"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="20"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="124"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="126"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="162"/>
+      <c r="Q30" s="163"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
+      <c r="T30" s="164"/>
+      <c r="U30" s="164"/>
+      <c r="V30" s="164"/>
+      <c r="W30" s="164"/>
+      <c r="X30" s="164"/>
+      <c r="Y30" s="164"/>
+      <c r="Z30" s="164"/>
+      <c r="AA30" s="164"/>
+      <c r="AB30" s="164"/>
+      <c r="AC30" s="164"/>
+      <c r="AD30" s="164"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="160"/>
+      <c r="AG30" s="161"/>
+      <c r="AH30" s="161"/>
+      <c r="AI30" s="162"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="129"/>
-      <c r="AF31" s="124"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="126"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="162"/>
+      <c r="Q31" s="163"/>
+      <c r="R31" s="164"/>
+      <c r="S31" s="164"/>
+      <c r="T31" s="164"/>
+      <c r="U31" s="164"/>
+      <c r="V31" s="164"/>
+      <c r="W31" s="164"/>
+      <c r="X31" s="164"/>
+      <c r="Y31" s="164"/>
+      <c r="Z31" s="164"/>
+      <c r="AA31" s="164"/>
+      <c r="AB31" s="164"/>
+      <c r="AC31" s="164"/>
+      <c r="AD31" s="164"/>
+      <c r="AE31" s="165"/>
+      <c r="AF31" s="160"/>
+      <c r="AG31" s="161"/>
+      <c r="AH31" s="161"/>
+      <c r="AI31" s="162"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="20"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="124"/>
-      <c r="AG32" s="125"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="126"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="162"/>
+      <c r="Q32" s="163"/>
+      <c r="R32" s="164"/>
+      <c r="S32" s="164"/>
+      <c r="T32" s="164"/>
+      <c r="U32" s="164"/>
+      <c r="V32" s="164"/>
+      <c r="W32" s="164"/>
+      <c r="X32" s="164"/>
+      <c r="Y32" s="164"/>
+      <c r="Z32" s="164"/>
+      <c r="AA32" s="164"/>
+      <c r="AB32" s="164"/>
+      <c r="AC32" s="164"/>
+      <c r="AD32" s="164"/>
+      <c r="AE32" s="165"/>
+      <c r="AF32" s="160"/>
+      <c r="AG32" s="161"/>
+      <c r="AH32" s="161"/>
+      <c r="AI32" s="162"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="124"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="126"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="162"/>
+      <c r="Q33" s="163"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="164"/>
+      <c r="V33" s="164"/>
+      <c r="W33" s="164"/>
+      <c r="X33" s="164"/>
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="164"/>
+      <c r="AA33" s="164"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="165"/>
+      <c r="AF33" s="160"/>
+      <c r="AG33" s="161"/>
+      <c r="AH33" s="161"/>
+      <c r="AI33" s="162"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -6502,162 +6658,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6674,8 +6674,8 @@
   </sheetPr>
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
@@ -6719,7 +6719,7 @@
         <v>197</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="11.5" thickBot="1">
@@ -6804,7 +6804,7 @@
         <v>90</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I9" s="41" t="s">
         <v>200</v>
@@ -6832,10 +6832,10 @@
         <v>39</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J10" s="48"/>
       <c r="K10" s="53"/>
@@ -6852,10 +6852,10 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J11" s="48"/>
       <c r="K11" s="53"/>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="20" spans="1:14" s="29" customFormat="1" ht="111.5" customHeight="1">
       <c r="A20" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -7062,10 +7062,10 @@
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="I20" s="47" t="s">
         <v>265</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>266</v>
       </c>
       <c r="J20" s="48"/>
       <c r="K20" s="53"/>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="21" spans="1:14" s="29" customFormat="1" ht="92.5" customHeight="1">
       <c r="A21" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -7141,7 +7141,7 @@
         <v>199</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J23" s="48"/>
       <c r="K23" s="53"/>
@@ -7163,7 +7163,7 @@
         <v>142</v>
       </c>
       <c r="I24" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J24" s="48"/>
       <c r="K24" s="53"/>
@@ -7185,7 +7185,7 @@
         <v>188</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J25" s="48"/>
       <c r="K25" s="53"/>
@@ -7204,10 +7204,10 @@
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I26" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J26" s="48"/>
       <c r="K26" s="53"/>
@@ -7262,7 +7262,7 @@
         <v>39</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I28" s="47" t="s">
         <v>195</v>
@@ -7284,7 +7284,7 @@
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I29" s="47" t="s">
         <v>196</v>
@@ -7306,7 +7306,7 @@
       <c r="F30" s="38"/>
       <c r="G30" s="34"/>
       <c r="H30" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I30" s="47" t="s">
         <v>237</v>
@@ -7336,10 +7336,10 @@
         <v>31</v>
       </c>
       <c r="H31" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="I31" s="47" t="s">
         <v>288</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>289</v>
       </c>
       <c r="J31" s="48"/>
       <c r="K31" s="53"/>
@@ -7358,10 +7358,10 @@
       <c r="F32" s="111"/>
       <c r="G32" s="111"/>
       <c r="H32" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="I32" s="47" t="s">
         <v>290</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>291</v>
       </c>
       <c r="J32" s="48"/>
       <c r="K32" s="53"/>
@@ -7386,10 +7386,10 @@
         <v>102</v>
       </c>
       <c r="H33" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="I33" s="105" t="s">
         <v>292</v>
-      </c>
-      <c r="I33" s="105" t="s">
-        <v>293</v>
       </c>
       <c r="J33" s="106"/>
       <c r="K33" s="107"/>
@@ -7414,10 +7414,10 @@
         <v>102</v>
       </c>
       <c r="H34" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I34" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J34" s="48"/>
       <c r="K34" s="53"/>
@@ -7590,7 +7590,7 @@
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
       <c r="H41" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I41" s="47" t="s">
         <v>134</v>
@@ -7612,7 +7612,7 @@
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
       <c r="H42" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I42" s="47" t="s">
         <v>134</v>
@@ -7634,7 +7634,7 @@
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
       <c r="H43" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I43" s="47" t="s">
         <v>134</v>
@@ -7656,7 +7656,7 @@
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
       <c r="H44" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I44" s="47" t="s">
         <v>134</v>
@@ -7678,7 +7678,7 @@
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
       <c r="H45" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I45" s="47" t="s">
         <v>134</v>
@@ -7700,7 +7700,7 @@
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
       <c r="H46" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I46" s="47" t="s">
         <v>211</v>
@@ -7963,7 +7963,7 @@
         <v>218</v>
       </c>
       <c r="I56" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J56" s="48"/>
       <c r="K56" s="53"/>
@@ -7985,7 +7985,7 @@
         <v>219</v>
       </c>
       <c r="I57" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J57" s="48"/>
       <c r="K57" s="53"/>
@@ -8007,7 +8007,7 @@
         <v>220</v>
       </c>
       <c r="I58" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J58" s="48"/>
       <c r="K58" s="53"/>
@@ -8029,7 +8029,7 @@
         <v>221</v>
       </c>
       <c r="I59" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J59" s="48"/>
       <c r="K59" s="53"/>
@@ -8051,7 +8051,7 @@
         <v>222</v>
       </c>
       <c r="I60" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J60" s="48"/>
       <c r="K60" s="53"/>
@@ -8073,7 +8073,7 @@
         <v>193</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J61" s="48"/>
       <c r="K61" s="53"/>
@@ -8095,7 +8095,7 @@
         <v>223</v>
       </c>
       <c r="I62" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J62" s="48"/>
       <c r="K62" s="53"/>
@@ -8117,7 +8117,7 @@
         <v>240</v>
       </c>
       <c r="I63" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J63" s="48"/>
       <c r="K63" s="53"/>
@@ -8139,7 +8139,7 @@
         <v>224</v>
       </c>
       <c r="I64" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J64" s="48"/>
       <c r="K64" s="53"/>
